--- a/GradeDistributionsDB/Summer2013/Output/Summer2013 BA.xlsx
+++ b/GradeDistributionsDB/Summer2013/Output/Summer2013 BA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="366">
   <si>
     <t>Course</t>
   </si>
@@ -568,12 +568,15 @@
     <t>60.00%</t>
   </si>
   <si>
+    <t>IBUS-450</t>
+  </si>
+  <si>
+    <t>PANINA D</t>
+  </si>
+  <si>
     <t>IBUS-456</t>
   </si>
   <si>
-    <t>PANINA D</t>
-  </si>
-  <si>
     <t>87.50%</t>
   </si>
   <si>
@@ -622,6 +625,66 @@
     <t>14.89%</t>
   </si>
   <si>
+    <t>PHINNEY T</t>
+  </si>
+  <si>
+    <t>42.86%</t>
+  </si>
+  <si>
+    <t>47.62%</t>
+  </si>
+  <si>
+    <t>9.52%</t>
+  </si>
+  <si>
+    <t>INFO-250</t>
+  </si>
+  <si>
+    <t>BOONE E</t>
+  </si>
+  <si>
+    <t>52.94%</t>
+  </si>
+  <si>
+    <t>29.41%</t>
+  </si>
+  <si>
+    <t>11.76%</t>
+  </si>
+  <si>
+    <t>5.88%</t>
+  </si>
+  <si>
+    <t>INFO-303</t>
+  </si>
+  <si>
+    <t>DARCEY L</t>
+  </si>
+  <si>
+    <t>32.26%</t>
+  </si>
+  <si>
+    <t>45.16%</t>
+  </si>
+  <si>
+    <t>16.13%</t>
+  </si>
+  <si>
+    <t>6.45%</t>
+  </si>
+  <si>
+    <t>TANNER J</t>
+  </si>
+  <si>
+    <t>57.41%</t>
+  </si>
+  <si>
+    <t>3.70%</t>
+  </si>
+  <si>
+    <t>INFO-305</t>
+  </si>
+  <si>
     <t>INFO-306</t>
   </si>
   <si>
@@ -643,9 +706,6 @@
     <t>INFO-330</t>
   </si>
   <si>
-    <t>42.86%</t>
-  </si>
-  <si>
     <t>57.14%</t>
   </si>
   <si>
@@ -676,9 +736,6 @@
     <t>INFO-601</t>
   </si>
   <si>
-    <t>PHINNEY T</t>
-  </si>
-  <si>
     <t>58.33%</t>
   </si>
   <si>
@@ -727,6 +784,60 @@
     <t>3.43%</t>
   </si>
   <si>
+    <t>MGMT-211</t>
+  </si>
+  <si>
+    <t>63.89%</t>
+  </si>
+  <si>
+    <t>30.56%</t>
+  </si>
+  <si>
+    <t>MGMT-212</t>
+  </si>
+  <si>
+    <t>52.17%</t>
+  </si>
+  <si>
+    <t>MGMT-309</t>
+  </si>
+  <si>
+    <t>WESSON L</t>
+  </si>
+  <si>
+    <t>16.75%</t>
+  </si>
+  <si>
+    <t>39.71%</t>
+  </si>
+  <si>
+    <t>33.49%</t>
+  </si>
+  <si>
+    <t>8.13%</t>
+  </si>
+  <si>
+    <t>1.91%</t>
+  </si>
+  <si>
+    <t>MGMT-363</t>
+  </si>
+  <si>
+    <t>28.74%</t>
+  </si>
+  <si>
+    <t>39.08%</t>
+  </si>
+  <si>
+    <t>25.29%</t>
+  </si>
+  <si>
+    <t>5.75%</t>
+  </si>
+  <si>
+    <t>1.15%</t>
+  </si>
+  <si>
     <t>MGMT-373</t>
   </si>
   <si>
@@ -829,9 +940,6 @@
     <t>ZARDKOOHI A</t>
   </si>
   <si>
-    <t>52.94%</t>
-  </si>
-  <si>
     <t>47.06%</t>
   </si>
   <si>
@@ -931,10 +1039,25 @@
     <t>4.26%</t>
   </si>
   <si>
+    <t>MKTG-403</t>
+  </si>
+  <si>
     <t>MKTG-409</t>
   </si>
   <si>
-    <t>29.41%</t>
+    <t>PRIDE W</t>
+  </si>
+  <si>
+    <t>10.11%</t>
+  </si>
+  <si>
+    <t>47.19%</t>
+  </si>
+  <si>
+    <t>34.83%</t>
+  </si>
+  <si>
+    <t>7.87%</t>
   </si>
   <si>
     <t>42.25%</t>
@@ -971,9 +1094,6 @@
   </si>
   <si>
     <t>MKTG-621</t>
-  </si>
-  <si>
-    <t>PRIDE W</t>
   </si>
   <si>
     <t>13.33%</t>
@@ -1328,7 +1448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H244"/>
+  <dimension ref="A1:H274"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2538,13 +2658,13 @@
         <v>185</v>
       </c>
       <c r="C125" t="n">
-        <v>3.875</v>
+        <v>4</v>
       </c>
       <c r="D125" t="s">
-        <v>186</v>
+        <v>48</v>
       </c>
       <c r="E125" t="s">
-        <v>187</v>
+        <v>20</v>
       </c>
       <c r="F125" t="s">
         <v>20</v>
@@ -2558,21 +2678,21 @@
     </row>
     <row r="127" spans="1:8">
       <c r="A127" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="128" spans="1:8">
       <c r="B128" t="s">
-        <v>164</v>
+        <v>185</v>
       </c>
       <c r="C128" t="n">
-        <v>3.8</v>
+        <v>3.875</v>
       </c>
       <c r="D128" t="s">
-        <v>106</v>
+        <v>187</v>
       </c>
       <c r="E128" t="s">
-        <v>17</v>
+        <v>188</v>
       </c>
       <c r="F128" t="s">
         <v>20</v>
@@ -2591,16 +2711,16 @@
     </row>
     <row r="131" spans="1:8">
       <c r="B131" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="C131" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="D131" t="s">
-        <v>190</v>
+        <v>106</v>
       </c>
       <c r="E131" t="s">
-        <v>141</v>
+        <v>17</v>
       </c>
       <c r="F131" t="s">
         <v>20</v>
@@ -2614,210 +2734,210 @@
     </row>
     <row r="133" spans="1:8">
       <c r="A133" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="134" spans="1:8">
       <c r="B134" t="s">
-        <v>192</v>
+        <v>145</v>
       </c>
       <c r="C134" t="n">
-        <v>3.083</v>
+        <v>3.7</v>
       </c>
       <c r="D134" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E134" t="s">
-        <v>194</v>
+        <v>141</v>
       </c>
       <c r="F134" t="s">
-        <v>195</v>
+        <v>20</v>
       </c>
       <c r="G134" t="s">
-        <v>196</v>
+        <v>20</v>
       </c>
       <c r="H134" t="s">
-        <v>196</v>
+        <v>20</v>
       </c>
     </row>
     <row r="136" spans="1:8">
       <c r="A136" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="137" spans="1:8">
       <c r="B137" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C137" t="n">
-        <v>3.128</v>
+        <v>3.083</v>
       </c>
       <c r="D137" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="E137" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="F137" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="G137" t="s">
-        <v>20</v>
+        <v>197</v>
       </c>
       <c r="H137" t="s">
-        <v>20</v>
+        <v>197</v>
       </c>
     </row>
     <row r="139" spans="1:8">
       <c r="A139" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="140" spans="1:8">
       <c r="B140" t="s">
+        <v>199</v>
+      </c>
+      <c r="C140" t="n">
+        <v>3.128</v>
+      </c>
+      <c r="D140" t="s">
+        <v>200</v>
+      </c>
+      <c r="E140" t="s">
+        <v>201</v>
+      </c>
+      <c r="F140" t="s">
+        <v>202</v>
+      </c>
+      <c r="G140" t="s">
+        <v>20</v>
+      </c>
+      <c r="H140" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8">
+      <c r="B141" t="s">
         <v>203</v>
       </c>
-      <c r="C140" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="D140" t="s">
+      <c r="C141" t="n">
+        <v>3.333</v>
+      </c>
+      <c r="D141" t="s">
         <v>204</v>
       </c>
-      <c r="E140" t="s">
-        <v>82</v>
-      </c>
-      <c r="F140" t="s">
-        <v>17</v>
-      </c>
-      <c r="G140" t="s">
-        <v>20</v>
-      </c>
-      <c r="H140" t="s">
+      <c r="E141" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="142" spans="1:8">
-      <c r="A142" t="s">
+      <c r="F141" t="s">
         <v>206</v>
       </c>
+      <c r="G141" t="s">
+        <v>20</v>
+      </c>
+      <c r="H141" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="143" spans="1:8">
-      <c r="B143" t="s">
+      <c r="A143" t="s">
         <v>207</v>
       </c>
-      <c r="C143" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="D143" t="s">
-        <v>87</v>
-      </c>
-      <c r="E143" t="s">
-        <v>204</v>
-      </c>
-      <c r="F143" t="s">
-        <v>20</v>
-      </c>
-      <c r="G143" t="s">
-        <v>17</v>
-      </c>
-      <c r="H143" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
-      <c r="A145" t="s">
+    </row>
+    <row r="144" spans="1:8">
+      <c r="B144" t="s">
         <v>208</v>
       </c>
+      <c r="C144" t="n">
+        <v>3.294</v>
+      </c>
+      <c r="D144" t="s">
+        <v>209</v>
+      </c>
+      <c r="E144" t="s">
+        <v>210</v>
+      </c>
+      <c r="F144" t="s">
+        <v>211</v>
+      </c>
+      <c r="G144" t="s">
+        <v>212</v>
+      </c>
+      <c r="H144" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="146" spans="1:8">
-      <c r="B146" t="s">
-        <v>207</v>
-      </c>
-      <c r="C146" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="D146" t="s">
-        <v>183</v>
-      </c>
-      <c r="E146" t="s">
-        <v>82</v>
-      </c>
-      <c r="F146" t="s">
-        <v>20</v>
-      </c>
-      <c r="G146" t="s">
-        <v>20</v>
-      </c>
-      <c r="H146" t="s">
-        <v>20</v>
+      <c r="A146" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="147" spans="1:8">
       <c r="B147" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="C147" t="n">
-        <v>3.429</v>
+        <v>3.032</v>
       </c>
       <c r="D147" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="E147" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="F147" t="s">
-        <v>20</v>
+        <v>217</v>
       </c>
       <c r="G147" t="s">
-        <v>20</v>
+        <v>218</v>
       </c>
       <c r="H147" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="149" spans="1:8">
-      <c r="A149" t="s">
-        <v>211</v>
+    <row r="148" spans="1:8">
+      <c r="B148" t="s">
+        <v>219</v>
+      </c>
+      <c r="C148" t="n">
+        <v>3.537</v>
+      </c>
+      <c r="D148" t="s">
+        <v>220</v>
+      </c>
+      <c r="E148" t="s">
+        <v>142</v>
+      </c>
+      <c r="F148" t="s">
+        <v>221</v>
+      </c>
+      <c r="G148" t="s">
+        <v>20</v>
+      </c>
+      <c r="H148" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="150" spans="1:8">
-      <c r="B150" t="s">
-        <v>212</v>
-      </c>
-      <c r="C150" t="n">
-        <v>3.315</v>
-      </c>
-      <c r="D150" t="s">
-        <v>213</v>
-      </c>
-      <c r="E150" t="s">
-        <v>87</v>
-      </c>
-      <c r="F150" t="s">
-        <v>214</v>
-      </c>
-      <c r="G150" t="s">
-        <v>20</v>
-      </c>
-      <c r="H150" t="s">
-        <v>20</v>
+      <c r="A150" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="151" spans="1:8">
       <c r="B151" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="C151" t="n">
-        <v>3.258</v>
+        <v>3.5</v>
       </c>
       <c r="D151" t="s">
-        <v>216</v>
+        <v>87</v>
       </c>
       <c r="E151" t="s">
-        <v>217</v>
+        <v>87</v>
       </c>
       <c r="F151" t="s">
-        <v>218</v>
+        <v>20</v>
       </c>
       <c r="G151" t="s">
         <v>20</v>
@@ -2828,55 +2948,55 @@
     </row>
     <row r="153" spans="1:8">
       <c r="A153" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="154" spans="1:8">
       <c r="B154" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="C154" t="n">
-        <v>3.458</v>
+        <v>2.8</v>
       </c>
       <c r="D154" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="E154" t="s">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="F154" t="s">
-        <v>187</v>
+        <v>17</v>
       </c>
       <c r="G154" t="s">
         <v>20</v>
       </c>
       <c r="H154" t="s">
-        <v>20</v>
+        <v>226</v>
       </c>
     </row>
     <row r="156" spans="1:8">
       <c r="A156" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
     </row>
     <row r="157" spans="1:8">
       <c r="B157" t="s">
-        <v>207</v>
+        <v>228</v>
       </c>
       <c r="C157" t="n">
-        <v>3.792</v>
+        <v>3.1</v>
       </c>
       <c r="D157" t="s">
-        <v>223</v>
+        <v>87</v>
       </c>
       <c r="E157" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F157" t="s">
         <v>20</v>
       </c>
       <c r="G157" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H157" t="s">
         <v>20</v>
@@ -2884,179 +3004,179 @@
     </row>
     <row r="159" spans="1:8">
       <c r="A159" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="160" spans="1:8">
       <c r="B160" t="s">
-        <v>207</v>
+        <v>228</v>
       </c>
       <c r="C160" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="D160" t="s">
+        <v>183</v>
+      </c>
+      <c r="E160" t="s">
+        <v>82</v>
+      </c>
+      <c r="F160" t="s">
+        <v>20</v>
+      </c>
+      <c r="G160" t="s">
+        <v>20</v>
+      </c>
+      <c r="H160" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8">
+      <c r="B161" t="s">
+        <v>199</v>
+      </c>
+      <c r="C161" t="n">
         <v>3.429</v>
       </c>
-      <c r="D160" t="s">
-        <v>209</v>
-      </c>
-      <c r="E160" t="s">
-        <v>210</v>
-      </c>
-      <c r="F160" t="s">
-        <v>20</v>
-      </c>
-      <c r="G160" t="s">
-        <v>20</v>
-      </c>
-      <c r="H160" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8">
-      <c r="A162" t="s">
-        <v>226</v>
+      <c r="D161" t="s">
+        <v>204</v>
+      </c>
+      <c r="E161" t="s">
+        <v>230</v>
+      </c>
+      <c r="F161" t="s">
+        <v>20</v>
+      </c>
+      <c r="G161" t="s">
+        <v>20</v>
+      </c>
+      <c r="H161" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="163" spans="1:8">
-      <c r="B163" t="s">
-        <v>227</v>
-      </c>
-      <c r="C163" t="n">
-        <v>2.313</v>
-      </c>
-      <c r="D163" t="s">
-        <v>228</v>
-      </c>
-      <c r="E163" t="s">
-        <v>229</v>
-      </c>
-      <c r="F163" t="s">
-        <v>230</v>
-      </c>
-      <c r="G163" t="s">
-        <v>230</v>
-      </c>
-      <c r="H163" t="s">
-        <v>20</v>
+      <c r="A163" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="164" spans="1:8">
       <c r="B164" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C164" t="n">
-        <v>2.578</v>
+        <v>3.315</v>
       </c>
       <c r="D164" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E164" t="s">
-        <v>233</v>
+        <v>87</v>
       </c>
       <c r="F164" t="s">
         <v>234</v>
       </c>
       <c r="G164" t="s">
+        <v>20</v>
+      </c>
+      <c r="H164" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8">
+      <c r="B165" t="s">
         <v>235</v>
       </c>
-      <c r="H164" t="s">
+      <c r="C165" t="n">
+        <v>3.258</v>
+      </c>
+      <c r="D165" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="166" spans="1:8">
-      <c r="A166" t="s">
+      <c r="E165" t="s">
         <v>237</v>
       </c>
+      <c r="F165" t="s">
+        <v>238</v>
+      </c>
+      <c r="G165" t="s">
+        <v>20</v>
+      </c>
+      <c r="H165" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="167" spans="1:8">
-      <c r="B167" t="s">
-        <v>238</v>
-      </c>
-      <c r="C167" t="n">
-        <v>3.636</v>
-      </c>
-      <c r="D167" t="s">
+      <c r="A167" t="s">
         <v>239</v>
       </c>
-      <c r="E167" t="s">
+    </row>
+    <row r="168" spans="1:8">
+      <c r="B168" t="s">
+        <v>203</v>
+      </c>
+      <c r="C168" t="n">
+        <v>3.458</v>
+      </c>
+      <c r="D168" t="s">
         <v>240</v>
       </c>
-      <c r="F167" t="s">
-        <v>20</v>
-      </c>
-      <c r="G167" t="s">
-        <v>20</v>
-      </c>
-      <c r="H167" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8">
-      <c r="A169" t="s">
+      <c r="E168" t="s">
+        <v>56</v>
+      </c>
+      <c r="F168" t="s">
+        <v>188</v>
+      </c>
+      <c r="G168" t="s">
+        <v>20</v>
+      </c>
+      <c r="H168" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8">
+      <c r="A170" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="170" spans="1:8">
-      <c r="B170" t="s">
+    <row r="171" spans="1:8">
+      <c r="B171" t="s">
+        <v>228</v>
+      </c>
+      <c r="C171" t="n">
+        <v>3.792</v>
+      </c>
+      <c r="D171" t="s">
         <v>242</v>
       </c>
-      <c r="C170" t="n">
-        <v>3.773</v>
-      </c>
-      <c r="D170" t="s">
+      <c r="E171" t="s">
         <v>243</v>
       </c>
-      <c r="E170" t="s">
+      <c r="F171" t="s">
+        <v>20</v>
+      </c>
+      <c r="G171" t="s">
+        <v>20</v>
+      </c>
+      <c r="H171" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8">
+      <c r="A173" t="s">
         <v>244</v>
-      </c>
-      <c r="F170" t="s">
-        <v>245</v>
-      </c>
-      <c r="G170" t="s">
-        <v>20</v>
-      </c>
-      <c r="H170" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8">
-      <c r="A172" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8">
-      <c r="B173" t="s">
-        <v>247</v>
-      </c>
-      <c r="C173" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="D173" t="s">
-        <v>248</v>
-      </c>
-      <c r="E173" t="s">
-        <v>249</v>
-      </c>
-      <c r="F173" t="s">
-        <v>20</v>
-      </c>
-      <c r="G173" t="s">
-        <v>20</v>
-      </c>
-      <c r="H173" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="174" spans="1:8">
       <c r="B174" t="s">
-        <v>185</v>
+        <v>228</v>
       </c>
       <c r="C174" t="n">
-        <v>3.857</v>
+        <v>3.429</v>
       </c>
       <c r="D174" t="s">
-        <v>250</v>
+        <v>204</v>
       </c>
       <c r="E174" t="s">
-        <v>251</v>
+        <v>230</v>
       </c>
       <c r="F174" t="s">
         <v>20</v>
@@ -3070,281 +3190,240 @@
     </row>
     <row r="176" spans="1:8">
       <c r="A176" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="177" spans="1:8">
       <c r="B177" t="s">
+        <v>246</v>
+      </c>
+      <c r="C177" t="n">
+        <v>2.313</v>
+      </c>
+      <c r="D177" t="s">
+        <v>247</v>
+      </c>
+      <c r="E177" t="s">
+        <v>248</v>
+      </c>
+      <c r="F177" t="s">
+        <v>249</v>
+      </c>
+      <c r="G177" t="s">
+        <v>249</v>
+      </c>
+      <c r="H177" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8">
+      <c r="B178" t="s">
+        <v>250</v>
+      </c>
+      <c r="C178" t="n">
+        <v>2.578</v>
+      </c>
+      <c r="D178" t="s">
+        <v>251</v>
+      </c>
+      <c r="E178" t="s">
+        <v>252</v>
+      </c>
+      <c r="F178" t="s">
         <v>253</v>
       </c>
-      <c r="C177" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="D177" t="s">
-        <v>106</v>
-      </c>
-      <c r="E177" t="s">
-        <v>17</v>
-      </c>
-      <c r="F177" t="s">
-        <v>20</v>
-      </c>
-      <c r="G177" t="s">
-        <v>20</v>
-      </c>
-      <c r="H177" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8">
-      <c r="A179" t="s">
+      <c r="G178" t="s">
         <v>254</v>
       </c>
+      <c r="H178" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="180" spans="1:8">
-      <c r="B180" t="s">
-        <v>255</v>
-      </c>
-      <c r="C180" t="n">
-        <v>3.348</v>
-      </c>
-      <c r="D180" t="s">
+      <c r="A180" t="s">
         <v>256</v>
-      </c>
-      <c r="E180" t="s">
-        <v>257</v>
-      </c>
-      <c r="F180" t="s">
-        <v>20</v>
-      </c>
-      <c r="G180" t="s">
-        <v>20</v>
-      </c>
-      <c r="H180" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="181" spans="1:8">
       <c r="B181" t="s">
+        <v>246</v>
+      </c>
+      <c r="C181" t="n">
+        <v>2.5415</v>
+      </c>
+      <c r="D181" t="s">
+        <v>20</v>
+      </c>
+      <c r="E181" t="s">
+        <v>257</v>
+      </c>
+      <c r="F181" t="s">
         <v>258</v>
       </c>
-      <c r="C181" t="n">
-        <v>3.662</v>
-      </c>
-      <c r="D181" t="s">
+      <c r="G181" t="s">
+        <v>20</v>
+      </c>
+      <c r="H181" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8">
+      <c r="A183" t="s">
         <v>259</v>
       </c>
-      <c r="E181" t="s">
-        <v>104</v>
-      </c>
-      <c r="F181" t="s">
+    </row>
+    <row r="184" spans="1:8">
+      <c r="B184" t="s">
+        <v>250</v>
+      </c>
+      <c r="C184" t="n">
+        <v>3.261</v>
+      </c>
+      <c r="D184" t="s">
+        <v>29</v>
+      </c>
+      <c r="E184" t="s">
         <v>260</v>
       </c>
-      <c r="G181" t="s">
-        <v>20</v>
-      </c>
-      <c r="H181" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8">
-      <c r="B182" t="s">
+      <c r="F184" t="s">
+        <v>31</v>
+      </c>
+      <c r="G184" t="s">
+        <v>31</v>
+      </c>
+      <c r="H184" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8">
+      <c r="A186" t="s">
         <v>261</v>
       </c>
-      <c r="C182" t="n">
-        <v>3.333</v>
-      </c>
-      <c r="D182" t="s">
-        <v>82</v>
-      </c>
-      <c r="E182" t="s">
+    </row>
+    <row r="187" spans="1:8">
+      <c r="B187" t="s">
         <v>262</v>
       </c>
-      <c r="F182" t="s">
-        <v>19</v>
-      </c>
-      <c r="G182" t="s">
-        <v>20</v>
-      </c>
-      <c r="H182" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8">
-      <c r="A184" t="s">
+      <c r="C187" t="n">
+        <v>2.612</v>
+      </c>
+      <c r="D187" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="185" spans="1:8">
-      <c r="B185" t="s">
+      <c r="E187" t="s">
         <v>264</v>
       </c>
-      <c r="C185" t="n">
-        <v>4</v>
-      </c>
-      <c r="D185" t="s">
-        <v>48</v>
-      </c>
-      <c r="E185" t="s">
-        <v>20</v>
-      </c>
-      <c r="F185" t="s">
-        <v>20</v>
-      </c>
-      <c r="G185" t="s">
-        <v>20</v>
-      </c>
-      <c r="H185" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8">
-      <c r="B186" t="s">
+      <c r="F187" t="s">
         <v>265</v>
       </c>
-      <c r="C186" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="D186" t="s">
-        <v>106</v>
-      </c>
-      <c r="E186" t="s">
-        <v>17</v>
-      </c>
-      <c r="F186" t="s">
-        <v>20</v>
-      </c>
-      <c r="G186" t="s">
-        <v>20</v>
-      </c>
-      <c r="H186" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8">
-      <c r="A188" t="s">
+      <c r="G187" t="s">
         <v>266</v>
       </c>
+      <c r="H187" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row r="189" spans="1:8">
-      <c r="B189" t="s">
-        <v>185</v>
-      </c>
-      <c r="C189" t="n">
-        <v>3.818</v>
-      </c>
-      <c r="D189" t="s">
-        <v>267</v>
-      </c>
-      <c r="E189" t="s">
+      <c r="A189" t="s">
         <v>268</v>
       </c>
-      <c r="F189" t="s">
-        <v>20</v>
-      </c>
-      <c r="G189" t="s">
-        <v>20</v>
-      </c>
-      <c r="H189" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8">
-      <c r="A191" t="s">
+    </row>
+    <row r="190" spans="1:8">
+      <c r="B190" t="s">
+        <v>262</v>
+      </c>
+      <c r="C190" t="n">
+        <v>2.885</v>
+      </c>
+      <c r="D190" t="s">
         <v>269</v>
       </c>
+      <c r="E190" t="s">
+        <v>270</v>
+      </c>
+      <c r="F190" t="s">
+        <v>271</v>
+      </c>
+      <c r="G190" t="s">
+        <v>272</v>
+      </c>
+      <c r="H190" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="192" spans="1:8">
-      <c r="B192" t="s">
-        <v>270</v>
-      </c>
-      <c r="C192" t="n">
-        <v>3.529</v>
-      </c>
-      <c r="D192" t="s">
-        <v>271</v>
-      </c>
-      <c r="E192" t="s">
-        <v>272</v>
-      </c>
-      <c r="F192" t="s">
-        <v>20</v>
-      </c>
-      <c r="G192" t="s">
-        <v>20</v>
-      </c>
-      <c r="H192" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8">
-      <c r="A194" t="s">
-        <v>273</v>
+      <c r="A192" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8">
+      <c r="B193" t="s">
+        <v>275</v>
+      </c>
+      <c r="C193" t="n">
+        <v>3.636</v>
+      </c>
+      <c r="D193" t="s">
+        <v>276</v>
+      </c>
+      <c r="E193" t="s">
+        <v>277</v>
+      </c>
+      <c r="F193" t="s">
+        <v>20</v>
+      </c>
+      <c r="G193" t="s">
+        <v>20</v>
+      </c>
+      <c r="H193" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="195" spans="1:8">
-      <c r="B195" t="s">
-        <v>270</v>
-      </c>
-      <c r="C195" t="n">
-        <v>4</v>
-      </c>
-      <c r="D195" t="s">
-        <v>48</v>
-      </c>
-      <c r="E195" t="s">
-        <v>20</v>
-      </c>
-      <c r="F195" t="s">
-        <v>20</v>
-      </c>
-      <c r="G195" t="s">
-        <v>20</v>
-      </c>
-      <c r="H195" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8">
-      <c r="A197" t="s">
-        <v>274</v>
+      <c r="A195" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8">
+      <c r="B196" t="s">
+        <v>279</v>
+      </c>
+      <c r="C196" t="n">
+        <v>3.773</v>
+      </c>
+      <c r="D196" t="s">
+        <v>280</v>
+      </c>
+      <c r="E196" t="s">
+        <v>281</v>
+      </c>
+      <c r="F196" t="s">
+        <v>282</v>
+      </c>
+      <c r="G196" t="s">
+        <v>20</v>
+      </c>
+      <c r="H196" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="198" spans="1:8">
-      <c r="B198" t="s">
-        <v>264</v>
-      </c>
-      <c r="C198" t="n">
-        <v>3.667</v>
-      </c>
-      <c r="D198" t="s">
-        <v>275</v>
-      </c>
-      <c r="E198" t="s">
-        <v>276</v>
-      </c>
-      <c r="F198" t="s">
-        <v>20</v>
-      </c>
-      <c r="G198" t="s">
-        <v>20</v>
-      </c>
-      <c r="H198" t="s">
-        <v>20</v>
+      <c r="A198" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="199" spans="1:8">
       <c r="B199" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="C199" t="n">
-        <v>3.825</v>
+        <v>3.55</v>
       </c>
       <c r="D199" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="E199" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="F199" t="s">
         <v>20</v>
@@ -3356,77 +3435,77 @@
         <v>20</v>
       </c>
     </row>
-    <row r="201" spans="1:8">
-      <c r="A201" t="s">
-        <v>280</v>
+    <row r="200" spans="1:8">
+      <c r="B200" t="s">
+        <v>185</v>
+      </c>
+      <c r="C200" t="n">
+        <v>3.857</v>
+      </c>
+      <c r="D200" t="s">
+        <v>287</v>
+      </c>
+      <c r="E200" t="s">
+        <v>288</v>
+      </c>
+      <c r="F200" t="s">
+        <v>20</v>
+      </c>
+      <c r="G200" t="s">
+        <v>20</v>
+      </c>
+      <c r="H200" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="202" spans="1:8">
-      <c r="B202" t="s">
-        <v>129</v>
-      </c>
-      <c r="C202" t="n">
-        <v>3.655</v>
-      </c>
-      <c r="D202" t="s">
-        <v>281</v>
-      </c>
-      <c r="E202" t="s">
-        <v>282</v>
-      </c>
-      <c r="F202" t="s">
-        <v>20</v>
-      </c>
-      <c r="G202" t="s">
-        <v>20</v>
-      </c>
-      <c r="H202" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8">
-      <c r="A204" t="s">
-        <v>283</v>
+      <c r="A202" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8">
+      <c r="B203" t="s">
+        <v>290</v>
+      </c>
+      <c r="C203" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="D203" t="s">
+        <v>106</v>
+      </c>
+      <c r="E203" t="s">
+        <v>17</v>
+      </c>
+      <c r="F203" t="s">
+        <v>20</v>
+      </c>
+      <c r="G203" t="s">
+        <v>20</v>
+      </c>
+      <c r="H203" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="205" spans="1:8">
-      <c r="B205" t="s">
-        <v>284</v>
-      </c>
-      <c r="C205" t="n">
-        <v>3.133</v>
-      </c>
-      <c r="D205" t="s">
-        <v>276</v>
-      </c>
-      <c r="E205" t="s">
-        <v>183</v>
-      </c>
-      <c r="F205" t="s">
-        <v>20</v>
-      </c>
-      <c r="G205" t="s">
-        <v>20</v>
-      </c>
-      <c r="H205" t="s">
-        <v>19</v>
+      <c r="A205" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="206" spans="1:8">
       <c r="B206" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="C206" t="n">
-        <v>3.676</v>
+        <v>3.348</v>
       </c>
       <c r="D206" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="E206" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="F206" t="s">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="G206" t="s">
         <v>20</v>
@@ -3435,51 +3514,92 @@
         <v>20</v>
       </c>
     </row>
+    <row r="207" spans="1:8">
+      <c r="B207" t="s">
+        <v>295</v>
+      </c>
+      <c r="C207" t="n">
+        <v>3.662</v>
+      </c>
+      <c r="D207" t="s">
+        <v>296</v>
+      </c>
+      <c r="E207" t="s">
+        <v>104</v>
+      </c>
+      <c r="F207" t="s">
+        <v>297</v>
+      </c>
+      <c r="G207" t="s">
+        <v>20</v>
+      </c>
+      <c r="H207" t="s">
+        <v>20</v>
+      </c>
+    </row>
     <row r="208" spans="1:8">
-      <c r="A208" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8">
-      <c r="B209" t="s">
-        <v>289</v>
-      </c>
-      <c r="C209" t="n">
-        <v>3.389</v>
-      </c>
-      <c r="D209" t="s">
-        <v>142</v>
-      </c>
-      <c r="E209" t="s">
-        <v>290</v>
-      </c>
-      <c r="F209" t="s">
-        <v>20</v>
-      </c>
-      <c r="G209" t="s">
-        <v>20</v>
-      </c>
-      <c r="H209" t="s">
-        <v>20</v>
+      <c r="B208" t="s">
+        <v>298</v>
+      </c>
+      <c r="C208" t="n">
+        <v>3.333</v>
+      </c>
+      <c r="D208" t="s">
+        <v>82</v>
+      </c>
+      <c r="E208" t="s">
+        <v>299</v>
+      </c>
+      <c r="F208" t="s">
+        <v>19</v>
+      </c>
+      <c r="G208" t="s">
+        <v>20</v>
+      </c>
+      <c r="H208" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8">
+      <c r="A210" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="211" spans="1:8">
-      <c r="A211" t="s">
-        <v>291</v>
+      <c r="B211" t="s">
+        <v>301</v>
+      </c>
+      <c r="C211" t="n">
+        <v>4</v>
+      </c>
+      <c r="D211" t="s">
+        <v>48</v>
+      </c>
+      <c r="E211" t="s">
+        <v>20</v>
+      </c>
+      <c r="F211" t="s">
+        <v>20</v>
+      </c>
+      <c r="G211" t="s">
+        <v>20</v>
+      </c>
+      <c r="H211" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="212" spans="1:8">
       <c r="B212" t="s">
-        <v>277</v>
+        <v>302</v>
       </c>
       <c r="C212" t="n">
-        <v>3.636</v>
+        <v>3.8</v>
       </c>
       <c r="D212" t="s">
-        <v>239</v>
+        <v>106</v>
       </c>
       <c r="E212" t="s">
-        <v>240</v>
+        <v>17</v>
       </c>
       <c r="F212" t="s">
         <v>20</v>
@@ -3493,24 +3613,24 @@
     </row>
     <row r="214" spans="1:8">
       <c r="A214" t="s">
-        <v>292</v>
+        <v>303</v>
       </c>
     </row>
     <row r="215" spans="1:8">
       <c r="B215" t="s">
-        <v>293</v>
+        <v>185</v>
       </c>
       <c r="C215" t="n">
-        <v>3.326</v>
+        <v>3.818</v>
       </c>
       <c r="D215" t="s">
-        <v>209</v>
+        <v>304</v>
       </c>
       <c r="E215" t="s">
-        <v>294</v>
+        <v>305</v>
       </c>
       <c r="F215" t="s">
-        <v>295</v>
+        <v>20</v>
       </c>
       <c r="G215" t="s">
         <v>20</v>
@@ -3521,21 +3641,21 @@
     </row>
     <row r="217" spans="1:8">
       <c r="A217" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
     </row>
     <row r="218" spans="1:8">
       <c r="B218" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="C218" t="n">
-        <v>3.818</v>
+        <v>3.529</v>
       </c>
       <c r="D218" t="s">
-        <v>267</v>
+        <v>209</v>
       </c>
       <c r="E218" t="s">
-        <v>268</v>
+        <v>308</v>
       </c>
       <c r="F218" t="s">
         <v>20</v>
@@ -3549,21 +3669,21 @@
     </row>
     <row r="220" spans="1:8">
       <c r="A220" t="s">
-        <v>298</v>
+        <v>309</v>
       </c>
     </row>
     <row r="221" spans="1:8">
       <c r="B221" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="C221" t="n">
-        <v>3.727</v>
+        <v>4</v>
       </c>
       <c r="D221" t="s">
-        <v>300</v>
+        <v>48</v>
       </c>
       <c r="E221" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="F221" t="s">
         <v>20</v>
@@ -3575,46 +3695,46 @@
         <v>20</v>
       </c>
     </row>
-    <row r="222" spans="1:8">
-      <c r="B222" t="s">
+    <row r="223" spans="1:8">
+      <c r="A223" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8">
+      <c r="B224" t="s">
         <v>301</v>
       </c>
-      <c r="C222" t="n">
-        <v>3.611</v>
-      </c>
-      <c r="D222" t="s">
-        <v>290</v>
-      </c>
-      <c r="E222" t="s">
-        <v>142</v>
-      </c>
-      <c r="F222" t="s">
-        <v>20</v>
-      </c>
-      <c r="G222" t="s">
-        <v>20</v>
-      </c>
-      <c r="H222" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="224" spans="1:8">
-      <c r="A224" t="s">
-        <v>302</v>
+      <c r="C224" t="n">
+        <v>3.667</v>
+      </c>
+      <c r="D224" t="s">
+        <v>311</v>
+      </c>
+      <c r="E224" t="s">
+        <v>312</v>
+      </c>
+      <c r="F224" t="s">
+        <v>20</v>
+      </c>
+      <c r="G224" t="s">
+        <v>20</v>
+      </c>
+      <c r="H224" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="225" spans="1:8">
       <c r="B225" t="s">
-        <v>175</v>
+        <v>313</v>
       </c>
       <c r="C225" t="n">
-        <v>3.957</v>
+        <v>3.825</v>
       </c>
       <c r="D225" t="s">
-        <v>303</v>
+        <v>314</v>
       </c>
       <c r="E225" t="s">
-        <v>304</v>
+        <v>315</v>
       </c>
       <c r="F225" t="s">
         <v>20</v>
@@ -3628,49 +3748,49 @@
     </row>
     <row r="227" spans="1:8">
       <c r="A227" t="s">
-        <v>305</v>
+        <v>316</v>
       </c>
     </row>
     <row r="228" spans="1:8">
       <c r="B228" t="s">
-        <v>299</v>
+        <v>129</v>
       </c>
       <c r="C228" t="n">
-        <v>2.957</v>
+        <v>3.655</v>
       </c>
       <c r="D228" t="s">
-        <v>306</v>
+        <v>317</v>
       </c>
       <c r="E228" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="F228" t="s">
-        <v>308</v>
+        <v>20</v>
       </c>
       <c r="G228" t="s">
-        <v>309</v>
+        <v>20</v>
       </c>
       <c r="H228" t="s">
-        <v>310</v>
+        <v>20</v>
       </c>
     </row>
     <row r="230" spans="1:8">
       <c r="A230" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
     </row>
     <row r="231" spans="1:8">
       <c r="B231" t="s">
-        <v>293</v>
+        <v>320</v>
       </c>
       <c r="C231" t="n">
-        <v>3.538</v>
+        <v>3.133</v>
       </c>
       <c r="D231" t="s">
-        <v>148</v>
+        <v>312</v>
       </c>
       <c r="E231" t="s">
-        <v>312</v>
+        <v>183</v>
       </c>
       <c r="F231" t="s">
         <v>20</v>
@@ -3679,108 +3799,108 @@
         <v>20</v>
       </c>
       <c r="H231" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="233" spans="1:8">
-      <c r="A233" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8">
+      <c r="B232" t="s">
+        <v>321</v>
+      </c>
+      <c r="C232" t="n">
+        <v>3.676</v>
+      </c>
+      <c r="D232" t="s">
+        <v>322</v>
+      </c>
+      <c r="E232" t="s">
+        <v>323</v>
+      </c>
+      <c r="F232" t="s">
+        <v>110</v>
+      </c>
+      <c r="G232" t="s">
+        <v>20</v>
+      </c>
+      <c r="H232" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8">
+      <c r="A234" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8">
+      <c r="B235" t="s">
+        <v>325</v>
+      </c>
+      <c r="C235" t="n">
+        <v>3.389</v>
+      </c>
+      <c r="D235" t="s">
+        <v>142</v>
+      </c>
+      <c r="E235" t="s">
+        <v>326</v>
+      </c>
+      <c r="F235" t="s">
+        <v>20</v>
+      </c>
+      <c r="G235" t="s">
+        <v>20</v>
+      </c>
+      <c r="H235" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8">
+      <c r="A237" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8">
+      <c r="B238" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="234" spans="1:8">
-      <c r="B234" t="s">
-        <v>301</v>
-      </c>
-      <c r="C234" t="n">
-        <v>3.769</v>
-      </c>
-      <c r="D234" t="s">
-        <v>314</v>
-      </c>
-      <c r="E234" t="s">
-        <v>20</v>
-      </c>
-      <c r="F234" t="s">
-        <v>20</v>
-      </c>
-      <c r="G234" t="s">
-        <v>151</v>
-      </c>
-      <c r="H234" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="236" spans="1:8">
-      <c r="A236" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="237" spans="1:8">
-      <c r="B237" t="s">
-        <v>316</v>
-      </c>
-      <c r="C237" t="n">
-        <v>3.9335</v>
-      </c>
-      <c r="D237" t="s">
-        <v>317</v>
-      </c>
-      <c r="E237" t="s">
-        <v>205</v>
-      </c>
-      <c r="F237" t="s">
-        <v>20</v>
-      </c>
-      <c r="G237" t="s">
-        <v>20</v>
-      </c>
-      <c r="H237" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="239" spans="1:8">
-      <c r="A239" t="s">
-        <v>318</v>
+      <c r="C238" t="n">
+        <v>3.636</v>
+      </c>
+      <c r="D238" t="s">
+        <v>276</v>
+      </c>
+      <c r="E238" t="s">
+        <v>277</v>
+      </c>
+      <c r="F238" t="s">
+        <v>20</v>
+      </c>
+      <c r="G238" t="s">
+        <v>20</v>
+      </c>
+      <c r="H238" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="240" spans="1:8">
-      <c r="B240" t="s">
-        <v>319</v>
-      </c>
-      <c r="C240" t="n">
-        <v>3.533</v>
-      </c>
-      <c r="D240" t="s">
-        <v>275</v>
-      </c>
-      <c r="E240" t="s">
-        <v>17</v>
-      </c>
-      <c r="F240" t="s">
-        <v>320</v>
-      </c>
-      <c r="G240" t="s">
-        <v>20</v>
-      </c>
-      <c r="H240" t="s">
-        <v>20</v>
+      <c r="A240" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="241" spans="1:8">
       <c r="B241" t="s">
-        <v>299</v>
+        <v>329</v>
       </c>
       <c r="C241" t="n">
-        <v>3.933</v>
+        <v>3.326</v>
       </c>
       <c r="D241" t="s">
-        <v>321</v>
+        <v>204</v>
       </c>
       <c r="E241" t="s">
-        <v>19</v>
+        <v>330</v>
       </c>
       <c r="F241" t="s">
-        <v>20</v>
+        <v>331</v>
       </c>
       <c r="G241" t="s">
         <v>20</v>
@@ -3791,29 +3911,350 @@
     </row>
     <row r="243" spans="1:8">
       <c r="A243" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
     </row>
     <row r="244" spans="1:8">
       <c r="B244" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="C244" t="n">
+        <v>3.818</v>
+      </c>
+      <c r="D244" t="s">
+        <v>304</v>
+      </c>
+      <c r="E244" t="s">
+        <v>305</v>
+      </c>
+      <c r="F244" t="s">
+        <v>20</v>
+      </c>
+      <c r="G244" t="s">
+        <v>20</v>
+      </c>
+      <c r="H244" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8">
+      <c r="A246" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8">
+      <c r="B247" t="s">
+        <v>335</v>
+      </c>
+      <c r="C247" t="n">
+        <v>3.727</v>
+      </c>
+      <c r="D247" t="s">
+        <v>336</v>
+      </c>
+      <c r="E247" t="s">
+        <v>66</v>
+      </c>
+      <c r="F247" t="s">
+        <v>20</v>
+      </c>
+      <c r="G247" t="s">
+        <v>20</v>
+      </c>
+      <c r="H247" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8">
+      <c r="B248" t="s">
+        <v>337</v>
+      </c>
+      <c r="C248" t="n">
+        <v>3.611</v>
+      </c>
+      <c r="D248" t="s">
+        <v>326</v>
+      </c>
+      <c r="E248" t="s">
+        <v>142</v>
+      </c>
+      <c r="F248" t="s">
+        <v>20</v>
+      </c>
+      <c r="G248" t="s">
+        <v>20</v>
+      </c>
+      <c r="H248" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8">
+      <c r="A250" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8">
+      <c r="B251" t="s">
+        <v>175</v>
+      </c>
+      <c r="C251" t="n">
+        <v>3.957</v>
+      </c>
+      <c r="D251" t="s">
+        <v>339</v>
+      </c>
+      <c r="E251" t="s">
+        <v>340</v>
+      </c>
+      <c r="F251" t="s">
+        <v>20</v>
+      </c>
+      <c r="G251" t="s">
+        <v>20</v>
+      </c>
+      <c r="H251" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8">
+      <c r="A253" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8">
+      <c r="B254" t="s">
+        <v>179</v>
+      </c>
+      <c r="C254" t="n">
+        <v>3.714</v>
+      </c>
+      <c r="D254" t="s">
+        <v>90</v>
+      </c>
+      <c r="E254" t="s">
+        <v>91</v>
+      </c>
+      <c r="F254" t="s">
+        <v>20</v>
+      </c>
+      <c r="G254" t="s">
+        <v>20</v>
+      </c>
+      <c r="H254" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8">
+      <c r="A256" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8">
+      <c r="B257" t="s">
+        <v>343</v>
+      </c>
+      <c r="C257" t="n">
+        <v>2.596</v>
+      </c>
+      <c r="D257" t="s">
+        <v>344</v>
+      </c>
+      <c r="E257" t="s">
+        <v>345</v>
+      </c>
+      <c r="F257" t="s">
+        <v>346</v>
+      </c>
+      <c r="G257" t="s">
+        <v>347</v>
+      </c>
+      <c r="H257" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8">
+      <c r="B258" t="s">
+        <v>335</v>
+      </c>
+      <c r="C258" t="n">
+        <v>2.957</v>
+      </c>
+      <c r="D258" t="s">
+        <v>210</v>
+      </c>
+      <c r="E258" t="s">
+        <v>348</v>
+      </c>
+      <c r="F258" t="s">
+        <v>349</v>
+      </c>
+      <c r="G258" t="s">
+        <v>350</v>
+      </c>
+      <c r="H258" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8">
+      <c r="A260" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8">
+      <c r="B261" t="s">
+        <v>329</v>
+      </c>
+      <c r="C261" t="n">
+        <v>3.538</v>
+      </c>
+      <c r="D261" t="s">
+        <v>148</v>
+      </c>
+      <c r="E261" t="s">
+        <v>353</v>
+      </c>
+      <c r="F261" t="s">
+        <v>20</v>
+      </c>
+      <c r="G261" t="s">
+        <v>20</v>
+      </c>
+      <c r="H261" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8">
+      <c r="A263" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8">
+      <c r="B264" t="s">
+        <v>337</v>
+      </c>
+      <c r="C264" t="n">
+        <v>3.769</v>
+      </c>
+      <c r="D264" t="s">
+        <v>355</v>
+      </c>
+      <c r="E264" t="s">
+        <v>20</v>
+      </c>
+      <c r="F264" t="s">
+        <v>20</v>
+      </c>
+      <c r="G264" t="s">
+        <v>151</v>
+      </c>
+      <c r="H264" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8">
+      <c r="A266" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8">
+      <c r="B267" t="s">
+        <v>357</v>
+      </c>
+      <c r="C267" t="n">
+        <v>3.9335</v>
+      </c>
+      <c r="D267" t="s">
+        <v>358</v>
+      </c>
+      <c r="E267" t="s">
+        <v>226</v>
+      </c>
+      <c r="F267" t="s">
+        <v>20</v>
+      </c>
+      <c r="G267" t="s">
+        <v>20</v>
+      </c>
+      <c r="H267" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8">
+      <c r="A269" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8">
+      <c r="B270" t="s">
+        <v>343</v>
+      </c>
+      <c r="C270" t="n">
+        <v>3.533</v>
+      </c>
+      <c r="D270" t="s">
+        <v>311</v>
+      </c>
+      <c r="E270" t="s">
+        <v>17</v>
+      </c>
+      <c r="F270" t="s">
+        <v>360</v>
+      </c>
+      <c r="G270" t="s">
+        <v>20</v>
+      </c>
+      <c r="H270" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8">
+      <c r="B271" t="s">
+        <v>335</v>
+      </c>
+      <c r="C271" t="n">
+        <v>3.933</v>
+      </c>
+      <c r="D271" t="s">
+        <v>361</v>
+      </c>
+      <c r="E271" t="s">
+        <v>19</v>
+      </c>
+      <c r="F271" t="s">
+        <v>20</v>
+      </c>
+      <c r="G271" t="s">
+        <v>20</v>
+      </c>
+      <c r="H271" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8">
+      <c r="A273" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8">
+      <c r="B274" t="s">
+        <v>363</v>
+      </c>
+      <c r="C274" t="n">
         <v>3.889</v>
       </c>
-      <c r="D244" t="s">
-        <v>324</v>
-      </c>
-      <c r="E244" t="s">
-        <v>325</v>
-      </c>
-      <c r="F244" t="s">
-        <v>20</v>
-      </c>
-      <c r="G244" t="s">
-        <v>20</v>
-      </c>
-      <c r="H244" t="s">
+      <c r="D274" t="s">
+        <v>364</v>
+      </c>
+      <c r="E274" t="s">
+        <v>365</v>
+      </c>
+      <c r="F274" t="s">
+        <v>20</v>
+      </c>
+      <c r="G274" t="s">
+        <v>20</v>
+      </c>
+      <c r="H274" t="s">
         <v>20</v>
       </c>
     </row>

--- a/GradeDistributionsDB/Summer2013/Output/Summer2013 BA.xlsx
+++ b/GradeDistributionsDB/Summer2013/Output/Summer2013 BA.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <s:workbookPr/>
-  <s:bookViews>
-    <s:workbookView activeTab="0"/>
-  </s:bookViews>
-  <s:sheets>
-    <s:sheet name="Sheet" sheetId="1" r:id="rId1"/>
-  </s:sheets>
-  <s:definedNames/>
-  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
-</s:workbook>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <bookViews>
+    <workbookView activeTab="0"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+  </sheets>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+</workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="383">
   <si>
     <t>Course</t>
   </si>
@@ -40,6 +40,9 @@
     <t>% of F's</t>
   </si>
   <si>
+    <t>% of Q Drop's</t>
+  </si>
+  <si>
     <t>ACCT-209</t>
   </si>
   <si>
@@ -61,6 +64,9 @@
     <t>1.75%</t>
   </si>
   <si>
+    <t>0.58%</t>
+  </si>
+  <si>
     <t>ACCT-210</t>
   </si>
   <si>
@@ -79,6 +85,9 @@
     <t>0.00%</t>
   </si>
   <si>
+    <t>9.09%</t>
+  </si>
+  <si>
     <t>ACCT-229</t>
   </si>
   <si>
@@ -112,6 +121,9 @@
     <t>4.35%</t>
   </si>
   <si>
+    <t>4.17%</t>
+  </si>
+  <si>
     <t>ACCT-230</t>
   </si>
   <si>
@@ -127,6 +139,9 @@
     <t>13.11%</t>
   </si>
   <si>
+    <t>1.61%</t>
+  </si>
+  <si>
     <t>ACCT-315</t>
   </si>
   <si>
@@ -154,6 +169,9 @@
     <t>5.26%</t>
   </si>
   <si>
+    <t>5.00%</t>
+  </si>
+  <si>
     <t>ACCT-321</t>
   </si>
   <si>
@@ -178,6 +196,9 @@
     <t>6.06%</t>
   </si>
   <si>
+    <t>5.71%</t>
+  </si>
+  <si>
     <t>ACCT-328</t>
   </si>
   <si>
@@ -223,6 +244,9 @@
     <t>10.91%</t>
   </si>
   <si>
+    <t>1.79%</t>
+  </si>
+  <si>
     <t>ACCT-407</t>
   </si>
   <si>
@@ -259,6 +283,9 @@
     <t>2.41%</t>
   </si>
   <si>
+    <t>2.35%</t>
+  </si>
+  <si>
     <t>ACCT-427</t>
   </si>
   <si>
@@ -307,6 +334,9 @@
     <t>1.25%</t>
   </si>
   <si>
+    <t>2.44%</t>
+  </si>
+  <si>
     <t>ACCT-629</t>
   </si>
   <si>
@@ -400,6 +430,9 @@
     <t>2.07%</t>
   </si>
   <si>
+    <t>3.60%</t>
+  </si>
+  <si>
     <t>FINC-371</t>
   </si>
   <si>
@@ -433,6 +466,9 @@
     <t>5.84%</t>
   </si>
   <si>
+    <t>4.05%</t>
+  </si>
+  <si>
     <t>FINC-421</t>
   </si>
   <si>
@@ -496,6 +532,9 @@
     <t>41.46%</t>
   </si>
   <si>
+    <t>2.38%</t>
+  </si>
+  <si>
     <t>FINC-632</t>
   </si>
   <si>
@@ -733,6 +772,9 @@
     <t>9.68%</t>
   </si>
   <si>
+    <t>1.59%</t>
+  </si>
+  <si>
     <t>INFO-601</t>
   </si>
   <si>
@@ -784,6 +826,9 @@
     <t>3.43%</t>
   </si>
   <si>
+    <t>5.12%</t>
+  </si>
+  <si>
     <t>MGMT-211</t>
   </si>
   <si>
@@ -793,6 +838,9 @@
     <t>30.56%</t>
   </si>
   <si>
+    <t>2.70%</t>
+  </si>
+  <si>
     <t>MGMT-212</t>
   </si>
   <si>
@@ -820,6 +868,9 @@
     <t>1.91%</t>
   </si>
   <si>
+    <t>0.48%</t>
+  </si>
+  <si>
     <t>MGMT-363</t>
   </si>
   <si>
@@ -862,9 +913,6 @@
     <t>4.55%</t>
   </si>
   <si>
-    <t>9.09%</t>
-  </si>
-  <si>
     <t>MGMT-450</t>
   </si>
   <si>
@@ -1070,6 +1118,9 @@
   </si>
   <si>
     <t>1.07%</t>
+  </si>
+  <si>
+    <t>1.06%</t>
   </si>
   <si>
     <t>MKTG-440</t>
@@ -1149,12 +1200,11 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
@@ -1448,15 +1498,15 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H274"/>
+  <dimension ref="A1:I274"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1481,2781 +1531,3090 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" t="n">
         <v>2.585</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="B6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C6" t="n">
         <v>2.7</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="B9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C9" t="n">
         <v>2.68</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G9" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="B10" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C10" t="n">
         <v>2.87</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F10" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G10" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="B13" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C13" t="n">
         <v>2.803</v>
       </c>
       <c r="D13" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E13" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F13" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G13" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="B16" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C16" t="n">
         <v>2.783</v>
       </c>
       <c r="D16" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E16" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G16" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>34</v>
+      </c>
+      <c r="I16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="B19" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C19" t="n">
         <v>3.053</v>
       </c>
       <c r="D19" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F19" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H19" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="I19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="B22" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C22" t="n">
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H22" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="B25" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C25" t="n">
         <v>2.879</v>
       </c>
       <c r="D25" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="E25" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F25" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="G25" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="H25" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I25" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="B28" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C28" t="n">
         <v>3.583</v>
       </c>
       <c r="D28" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="E28" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="F28" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="G28" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H28" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I28" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="B31" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C31" t="n">
         <v>3.5965</v>
       </c>
       <c r="D31" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="E31" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="F31" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="G31" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="H31" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I31" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="B34" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="C34" t="n">
         <v>3.164</v>
       </c>
       <c r="D34" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="E34" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="F34" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="G34" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H34" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I34" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="B37" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="C37" t="n">
         <v>3.154</v>
       </c>
       <c r="D37" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E37" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="F37" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="G37" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H37" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>82</v>
+      </c>
+      <c r="I37" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="B40" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="C40" t="n">
         <v>3.6605</v>
       </c>
       <c r="D40" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="E40" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F40" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G40" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H40" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>88</v>
+      </c>
+      <c r="I40" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="B43" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C43" t="n">
         <v>3.378</v>
       </c>
       <c r="D43" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="E43" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="F43" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="G43" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H43" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I43" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="B46" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="C46" t="n">
         <v>3.5</v>
       </c>
       <c r="D46" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="E46" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="F46" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G46" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H46" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I46" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="B49" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="C49" t="n">
         <v>3.714</v>
       </c>
       <c r="D49" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="E49" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="F49" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G49" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H49" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I49" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="B52" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="C52" t="n">
         <v>3.5595</v>
       </c>
       <c r="D52" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="E52" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="F52" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="G52" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H52" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I52" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="B55" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="C55" t="n">
         <v>3.886</v>
       </c>
       <c r="D55" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="E55" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="F55" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G55" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H55" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I55" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="B58" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="C58" t="n">
         <v>3.75</v>
       </c>
       <c r="D58" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="E58" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="F58" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G58" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H58" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I58" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="B61" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="C61" t="n">
         <v>3.8</v>
       </c>
       <c r="D61" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="E61" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F61" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G61" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H61" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I61" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="B64" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="C64" t="n">
         <v>3.324</v>
       </c>
       <c r="D64" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="E64" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="F64" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="G64" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H64" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I64" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="B67" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="C67" t="n">
         <v>3.969</v>
       </c>
       <c r="D67" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="E67" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="F67" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G67" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H67" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I67" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="B70" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="C70" t="n">
         <v>4</v>
       </c>
       <c r="D70" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E70" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F70" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G70" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H70" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I70" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="B73" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C73" t="n">
         <v>4</v>
       </c>
       <c r="D73" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E73" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F73" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G73" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H73" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I73" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="B76" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="C76" t="n">
         <v>3.546</v>
       </c>
       <c r="D76" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="E76" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F76" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G76" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H76" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I76" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="B79" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="C79" t="n">
         <v>2.867</v>
       </c>
       <c r="D79" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="E79" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="F79" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="G79" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="H79" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>137</v>
+      </c>
+      <c r="I79" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="B82" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="C82" t="n">
         <v>3.343</v>
       </c>
       <c r="D82" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="E82" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="F82" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="G82" t="s">
+        <v>143</v>
+      </c>
+      <c r="H82" t="s">
+        <v>22</v>
+      </c>
+      <c r="I82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="B85" t="s">
         <v>132</v>
-      </c>
-      <c r="H82" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
-      <c r="A84" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
-      <c r="B85" t="s">
-        <v>122</v>
       </c>
       <c r="C85" t="n">
         <v>2.61</v>
       </c>
       <c r="D85" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="E85" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F85" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="G85" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="H85" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>149</v>
+      </c>
+      <c r="I85" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="B88" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="C88" t="n">
         <v>2.667</v>
       </c>
       <c r="D88" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="E88" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="F88" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="G88" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="H88" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I88" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="B91" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="C91" t="n">
         <v>3</v>
       </c>
       <c r="D91" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="E91" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="F91" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="G91" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H91" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I91" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="B92" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="C92" t="n">
         <v>3.231</v>
       </c>
       <c r="D92" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="E92" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="F92" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="G92" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="H92" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I92" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="B95" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="C95" t="n">
         <v>3.5</v>
       </c>
       <c r="D95" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="E95" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="F95" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G95" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H95" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I95" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="B98" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="C98" t="n">
         <v>4</v>
       </c>
       <c r="D98" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E98" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F98" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G98" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H98" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I98" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="B101" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="C101" t="n">
         <v>3.585</v>
       </c>
       <c r="D101" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="E101" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="F101" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G101" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H101" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I101" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="B104" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="C104" t="n">
         <v>3.5545</v>
       </c>
       <c r="D104" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="E104" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="F104" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G104" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H104" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I104" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="B107" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="C107" t="n">
         <v>3.233</v>
       </c>
       <c r="D107" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="E107" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="F107" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="G107" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="H107" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>181</v>
+      </c>
+      <c r="I107" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="B110" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="C110" t="n">
         <v>3.743</v>
       </c>
       <c r="D110" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="E110" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="F110" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="G110" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H110" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I110" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="B113" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="C113" t="n">
         <v>4</v>
       </c>
       <c r="D113" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E113" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F113" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G113" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H113" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I113" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="B116" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="C116" t="n">
         <v>3.75</v>
       </c>
       <c r="D116" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="E116" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="F116" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="G116" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H116" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I116" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="B119" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="C119" t="n">
         <v>3.824</v>
       </c>
       <c r="D119" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="E119" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="F119" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G119" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H119" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I119" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="B122" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="C122" t="n">
         <v>3.6</v>
       </c>
       <c r="D122" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="E122" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="F122" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G122" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H122" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I122" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="B125" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="C125" t="n">
         <v>4</v>
       </c>
       <c r="D125" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E125" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F125" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G125" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H125" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I125" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="B128" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="C128" t="n">
         <v>3.875</v>
       </c>
       <c r="D128" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="E128" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="F128" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G128" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H128" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I128" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="B131" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="C131" t="n">
         <v>3.8</v>
       </c>
       <c r="D131" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="E131" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F131" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G131" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H131" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I131" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="B134" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="C134" t="n">
         <v>3.7</v>
       </c>
       <c r="D134" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="E134" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="F134" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G134" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H134" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I134" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="B137" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="C137" t="n">
         <v>3.083</v>
       </c>
       <c r="D137" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="E137" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="F137" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="G137" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="H137" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>210</v>
+      </c>
+      <c r="I137" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="B140" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="C140" t="n">
         <v>3.128</v>
       </c>
       <c r="D140" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="E140" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F140" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="G140" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H140" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I140" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="B141" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="C141" t="n">
         <v>3.333</v>
       </c>
       <c r="D141" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="E141" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="F141" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="G141" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H141" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I141" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="B144" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="C144" t="n">
         <v>3.294</v>
       </c>
       <c r="D144" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="E144" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="F144" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="G144" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="H144" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I144" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="B147" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="C147" t="n">
         <v>3.032</v>
       </c>
       <c r="D147" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="E147" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="F147" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="G147" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="H147" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I147" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="B148" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="C148" t="n">
         <v>3.537</v>
       </c>
       <c r="D148" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="E148" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="F148" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c r="G148" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H148" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I148" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="A150" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="B151" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="C151" t="n">
         <v>3.5</v>
       </c>
       <c r="D151" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="E151" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="F151" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G151" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H151" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I151" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="A153" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="B154" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="C154" t="n">
         <v>2.8</v>
       </c>
       <c r="D154" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="E154" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="F154" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G154" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H154" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
+        <v>239</v>
+      </c>
+      <c r="I154" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
       <c r="A156" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
       <c r="B157" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="C157" t="n">
         <v>3.1</v>
       </c>
       <c r="D157" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="E157" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="F157" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G157" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H157" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I157" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
       <c r="A159" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
       <c r="B160" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="C160" t="n">
         <v>3.6</v>
       </c>
       <c r="D160" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="E160" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="F160" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G160" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H160" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I160" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
       <c r="B161" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="C161" t="n">
         <v>3.429</v>
       </c>
       <c r="D161" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="E161" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="F161" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G161" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H161" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I161" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
       <c r="A163" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
       <c r="B164" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="C164" t="n">
         <v>3.315</v>
       </c>
       <c r="D164" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="E164" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="F164" t="s">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="G164" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H164" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I164" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
       <c r="B165" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="C165" t="n">
         <v>3.258</v>
       </c>
       <c r="D165" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="E165" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="F165" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="G165" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H165" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I165" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
       <c r="A167" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
       <c r="B168" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="C168" t="n">
         <v>3.458</v>
       </c>
       <c r="D168" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="E168" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="F168" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="G168" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H168" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I168" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
       <c r="A170" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
+      <c r="B171" t="s">
         <v>241</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8">
-      <c r="B171" t="s">
-        <v>228</v>
       </c>
       <c r="C171" t="n">
         <v>3.792</v>
       </c>
       <c r="D171" t="s">
-        <v>242</v>
+        <v>256</v>
       </c>
       <c r="E171" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
       <c r="F171" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G171" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H171" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I171" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
       <c r="A173" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
       <c r="B174" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="C174" t="n">
         <v>3.429</v>
       </c>
       <c r="D174" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="E174" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="F174" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G174" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H174" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I174" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
       <c r="A176" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
       <c r="B177" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="C177" t="n">
         <v>2.313</v>
       </c>
       <c r="D177" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="E177" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="F177" t="s">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="G177" t="s">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="H177" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I177" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
       <c r="B178" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="C178" t="n">
         <v>2.578</v>
       </c>
       <c r="D178" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
       <c r="E178" t="s">
-        <v>252</v>
+        <v>266</v>
       </c>
       <c r="F178" t="s">
-        <v>253</v>
+        <v>267</v>
       </c>
       <c r="G178" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="H178" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8">
+        <v>269</v>
+      </c>
+      <c r="I178" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
       <c r="A180" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
       <c r="B181" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="C181" t="n">
         <v>2.5415</v>
       </c>
       <c r="D181" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E181" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="F181" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="G181" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H181" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8">
+        <v>155</v>
+      </c>
+      <c r="I181" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9">
       <c r="A183" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
       <c r="B184" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="C184" t="n">
         <v>3.261</v>
       </c>
       <c r="D184" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E184" t="s">
-        <v>260</v>
+        <v>276</v>
       </c>
       <c r="F184" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G184" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H184" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I184" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9">
       <c r="A186" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9">
       <c r="B187" t="s">
-        <v>262</v>
+        <v>278</v>
       </c>
       <c r="C187" t="n">
         <v>2.612</v>
       </c>
       <c r="D187" t="s">
-        <v>263</v>
+        <v>279</v>
       </c>
       <c r="E187" t="s">
-        <v>264</v>
+        <v>280</v>
       </c>
       <c r="F187" t="s">
-        <v>265</v>
+        <v>281</v>
       </c>
       <c r="G187" t="s">
-        <v>266</v>
+        <v>282</v>
       </c>
       <c r="H187" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8">
+        <v>283</v>
+      </c>
+      <c r="I187" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9">
       <c r="A189" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9">
       <c r="B190" t="s">
-        <v>262</v>
+        <v>278</v>
       </c>
       <c r="C190" t="n">
         <v>2.885</v>
       </c>
       <c r="D190" t="s">
-        <v>269</v>
+        <v>286</v>
       </c>
       <c r="E190" t="s">
-        <v>270</v>
+        <v>287</v>
       </c>
       <c r="F190" t="s">
-        <v>271</v>
+        <v>288</v>
       </c>
       <c r="G190" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="H190" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8">
+        <v>290</v>
+      </c>
+      <c r="I190" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9">
       <c r="A192" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9">
       <c r="B193" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="C193" t="n">
         <v>3.636</v>
       </c>
       <c r="D193" t="s">
-        <v>276</v>
+        <v>293</v>
       </c>
       <c r="E193" t="s">
-        <v>277</v>
+        <v>294</v>
       </c>
       <c r="F193" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G193" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H193" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I193" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9">
       <c r="A195" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9">
       <c r="B196" t="s">
-        <v>279</v>
+        <v>296</v>
       </c>
       <c r="C196" t="n">
         <v>3.773</v>
       </c>
       <c r="D196" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
       <c r="E196" t="s">
-        <v>281</v>
+        <v>298</v>
       </c>
       <c r="F196" t="s">
-        <v>282</v>
+        <v>23</v>
       </c>
       <c r="G196" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H196" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I196" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9">
       <c r="A198" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9">
       <c r="B199" t="s">
-        <v>284</v>
+        <v>300</v>
       </c>
       <c r="C199" t="n">
         <v>3.55</v>
       </c>
       <c r="D199" t="s">
-        <v>285</v>
+        <v>301</v>
       </c>
       <c r="E199" t="s">
-        <v>286</v>
+        <v>302</v>
       </c>
       <c r="F199" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G199" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H199" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I199" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9">
       <c r="B200" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="C200" t="n">
         <v>3.857</v>
       </c>
       <c r="D200" t="s">
-        <v>287</v>
+        <v>303</v>
       </c>
       <c r="E200" t="s">
-        <v>288</v>
+        <v>304</v>
       </c>
       <c r="F200" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G200" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H200" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I200" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9">
       <c r="A202" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9">
       <c r="B203" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="C203" t="n">
         <v>3.8</v>
       </c>
       <c r="D203" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="E203" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F203" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G203" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H203" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I203" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9">
       <c r="A205" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9">
       <c r="B206" t="s">
-        <v>292</v>
+        <v>308</v>
       </c>
       <c r="C206" t="n">
         <v>3.348</v>
       </c>
       <c r="D206" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="E206" t="s">
-        <v>294</v>
+        <v>310</v>
       </c>
       <c r="F206" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G206" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H206" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I206" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9">
       <c r="B207" t="s">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="C207" t="n">
         <v>3.662</v>
       </c>
       <c r="D207" t="s">
-        <v>296</v>
+        <v>312</v>
       </c>
       <c r="E207" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="F207" t="s">
-        <v>297</v>
+        <v>313</v>
       </c>
       <c r="G207" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H207" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I207" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9">
       <c r="B208" t="s">
-        <v>298</v>
+        <v>314</v>
       </c>
       <c r="C208" t="n">
         <v>3.333</v>
       </c>
       <c r="D208" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="E208" t="s">
-        <v>299</v>
+        <v>315</v>
       </c>
       <c r="F208" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G208" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H208" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I208" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9">
       <c r="A210" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9">
       <c r="B211" t="s">
-        <v>301</v>
+        <v>317</v>
       </c>
       <c r="C211" t="n">
         <v>4</v>
       </c>
       <c r="D211" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E211" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F211" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G211" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H211" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I211" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9">
       <c r="B212" t="s">
-        <v>302</v>
+        <v>318</v>
       </c>
       <c r="C212" t="n">
         <v>3.8</v>
       </c>
       <c r="D212" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="E212" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F212" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G212" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H212" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I212" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9">
       <c r="A214" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9">
       <c r="B215" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="C215" t="n">
         <v>3.818</v>
       </c>
       <c r="D215" t="s">
-        <v>304</v>
+        <v>320</v>
       </c>
       <c r="E215" t="s">
-        <v>305</v>
+        <v>321</v>
       </c>
       <c r="F215" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G215" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H215" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="217" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I215" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9">
       <c r="A217" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9">
       <c r="B218" t="s">
-        <v>307</v>
+        <v>323</v>
       </c>
       <c r="C218" t="n">
         <v>3.529</v>
       </c>
       <c r="D218" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="E218" t="s">
-        <v>308</v>
+        <v>324</v>
       </c>
       <c r="F218" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G218" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H218" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="220" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I218" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9">
       <c r="A220" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="221" spans="1:8">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9">
       <c r="B221" t="s">
-        <v>307</v>
+        <v>323</v>
       </c>
       <c r="C221" t="n">
         <v>4</v>
       </c>
       <c r="D221" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E221" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F221" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G221" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H221" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="223" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I221" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9">
       <c r="A223" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="224" spans="1:8">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9">
       <c r="B224" t="s">
-        <v>301</v>
+        <v>317</v>
       </c>
       <c r="C224" t="n">
         <v>3.667</v>
       </c>
       <c r="D224" t="s">
-        <v>311</v>
+        <v>327</v>
       </c>
       <c r="E224" t="s">
-        <v>312</v>
+        <v>328</v>
       </c>
       <c r="F224" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G224" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H224" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="225" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I224" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9">
       <c r="B225" t="s">
-        <v>313</v>
+        <v>329</v>
       </c>
       <c r="C225" t="n">
         <v>3.825</v>
       </c>
       <c r="D225" t="s">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="E225" t="s">
-        <v>315</v>
+        <v>331</v>
       </c>
       <c r="F225" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G225" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H225" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="227" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I225" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9">
       <c r="A227" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="228" spans="1:8">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9">
       <c r="B228" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="C228" t="n">
         <v>3.655</v>
       </c>
       <c r="D228" t="s">
-        <v>317</v>
+        <v>333</v>
       </c>
       <c r="E228" t="s">
-        <v>318</v>
+        <v>334</v>
       </c>
       <c r="F228" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G228" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H228" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="230" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I228" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9">
       <c r="A230" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="231" spans="1:8">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9">
       <c r="B231" t="s">
-        <v>320</v>
+        <v>336</v>
       </c>
       <c r="C231" t="n">
         <v>3.133</v>
       </c>
       <c r="D231" t="s">
-        <v>312</v>
+        <v>328</v>
       </c>
       <c r="E231" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="F231" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G231" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H231" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="232" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I231" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9">
       <c r="B232" t="s">
-        <v>321</v>
+        <v>337</v>
       </c>
       <c r="C232" t="n">
         <v>3.676</v>
       </c>
       <c r="D232" t="s">
-        <v>322</v>
+        <v>338</v>
       </c>
       <c r="E232" t="s">
-        <v>323</v>
+        <v>339</v>
       </c>
       <c r="F232" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="G232" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H232" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="234" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I232" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9">
       <c r="A234" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="235" spans="1:8">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9">
       <c r="B235" t="s">
-        <v>325</v>
+        <v>341</v>
       </c>
       <c r="C235" t="n">
         <v>3.389</v>
       </c>
       <c r="D235" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="E235" t="s">
-        <v>326</v>
+        <v>342</v>
       </c>
       <c r="F235" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G235" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H235" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="237" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I235" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9">
       <c r="A237" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="238" spans="1:8">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9">
       <c r="B238" t="s">
-        <v>313</v>
+        <v>329</v>
       </c>
       <c r="C238" t="n">
         <v>3.636</v>
       </c>
       <c r="D238" t="s">
-        <v>276</v>
+        <v>293</v>
       </c>
       <c r="E238" t="s">
-        <v>277</v>
+        <v>294</v>
       </c>
       <c r="F238" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G238" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H238" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="240" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I238" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9">
       <c r="A240" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="241" spans="1:8">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9">
       <c r="B241" t="s">
-        <v>329</v>
+        <v>345</v>
       </c>
       <c r="C241" t="n">
         <v>3.326</v>
       </c>
       <c r="D241" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="E241" t="s">
-        <v>330</v>
+        <v>346</v>
       </c>
       <c r="F241" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="G241" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H241" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="243" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I241" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9">
       <c r="A243" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="244" spans="1:8">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9">
       <c r="B244" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="C244" t="n">
         <v>3.818</v>
       </c>
       <c r="D244" t="s">
-        <v>304</v>
+        <v>320</v>
       </c>
       <c r="E244" t="s">
-        <v>305</v>
+        <v>321</v>
       </c>
       <c r="F244" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G244" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H244" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="246" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I244" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9">
       <c r="A246" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="247" spans="1:8">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9">
       <c r="B247" t="s">
-        <v>335</v>
+        <v>351</v>
       </c>
       <c r="C247" t="n">
         <v>3.727</v>
       </c>
       <c r="D247" t="s">
-        <v>336</v>
+        <v>352</v>
       </c>
       <c r="E247" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="F247" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G247" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H247" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="248" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I247" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9">
       <c r="B248" t="s">
-        <v>337</v>
+        <v>353</v>
       </c>
       <c r="C248" t="n">
         <v>3.611</v>
       </c>
       <c r="D248" t="s">
-        <v>326</v>
+        <v>342</v>
       </c>
       <c r="E248" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="F248" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G248" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H248" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="250" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I248" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9">
       <c r="A250" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="251" spans="1:8">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9">
       <c r="B251" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="C251" t="n">
         <v>3.957</v>
       </c>
       <c r="D251" t="s">
-        <v>339</v>
+        <v>355</v>
       </c>
       <c r="E251" t="s">
-        <v>340</v>
+        <v>356</v>
       </c>
       <c r="F251" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G251" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H251" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="253" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I251" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9">
       <c r="A253" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="254" spans="1:8">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9">
       <c r="B254" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="C254" t="n">
         <v>3.714</v>
       </c>
       <c r="D254" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="E254" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="F254" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G254" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H254" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="256" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I254" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9">
       <c r="A256" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="257" spans="1:8">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9">
       <c r="B257" t="s">
-        <v>343</v>
+        <v>359</v>
       </c>
       <c r="C257" t="n">
         <v>2.596</v>
       </c>
       <c r="D257" t="s">
-        <v>344</v>
+        <v>360</v>
       </c>
       <c r="E257" t="s">
-        <v>345</v>
+        <v>361</v>
       </c>
       <c r="F257" t="s">
-        <v>346</v>
+        <v>362</v>
       </c>
       <c r="G257" t="s">
-        <v>347</v>
+        <v>363</v>
       </c>
       <c r="H257" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="258" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I257" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9">
       <c r="B258" t="s">
-        <v>335</v>
+        <v>351</v>
       </c>
       <c r="C258" t="n">
         <v>2.957</v>
       </c>
       <c r="D258" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="E258" t="s">
-        <v>348</v>
+        <v>364</v>
       </c>
       <c r="F258" t="s">
-        <v>349</v>
+        <v>365</v>
       </c>
       <c r="G258" t="s">
-        <v>350</v>
+        <v>366</v>
       </c>
       <c r="H258" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="260" spans="1:8">
+        <v>367</v>
+      </c>
+      <c r="I258" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9">
       <c r="A260" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="261" spans="1:8">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9">
       <c r="B261" t="s">
-        <v>329</v>
+        <v>345</v>
       </c>
       <c r="C261" t="n">
         <v>3.538</v>
       </c>
       <c r="D261" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="E261" t="s">
+        <v>370</v>
+      </c>
+      <c r="F261" t="s">
+        <v>22</v>
+      </c>
+      <c r="G261" t="s">
+        <v>22</v>
+      </c>
+      <c r="H261" t="s">
+        <v>22</v>
+      </c>
+      <c r="I261" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9">
+      <c r="A263" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9">
+      <c r="B264" t="s">
         <v>353</v>
-      </c>
-      <c r="F261" t="s">
-        <v>20</v>
-      </c>
-      <c r="G261" t="s">
-        <v>20</v>
-      </c>
-      <c r="H261" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="263" spans="1:8">
-      <c r="A263" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="264" spans="1:8">
-      <c r="B264" t="s">
-        <v>337</v>
       </c>
       <c r="C264" t="n">
         <v>3.769</v>
       </c>
       <c r="D264" t="s">
-        <v>355</v>
+        <v>372</v>
       </c>
       <c r="E264" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F264" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G264" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="H264" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="266" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I264" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9">
       <c r="A266" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="267" spans="1:8">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9">
       <c r="B267" t="s">
-        <v>357</v>
+        <v>374</v>
       </c>
       <c r="C267" t="n">
         <v>3.9335</v>
       </c>
       <c r="D267" t="s">
-        <v>358</v>
+        <v>375</v>
       </c>
       <c r="E267" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="F267" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G267" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H267" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="269" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I267" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9">
       <c r="A269" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9">
+      <c r="B270" t="s">
         <v>359</v>
-      </c>
-    </row>
-    <row r="270" spans="1:8">
-      <c r="B270" t="s">
-        <v>343</v>
       </c>
       <c r="C270" t="n">
         <v>3.533</v>
       </c>
       <c r="D270" t="s">
-        <v>311</v>
+        <v>327</v>
       </c>
       <c r="E270" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F270" t="s">
-        <v>360</v>
+        <v>377</v>
       </c>
       <c r="G270" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H270" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="271" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I270" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9">
       <c r="B271" t="s">
-        <v>335</v>
+        <v>351</v>
       </c>
       <c r="C271" t="n">
         <v>3.933</v>
       </c>
       <c r="D271" t="s">
-        <v>361</v>
+        <v>378</v>
       </c>
       <c r="E271" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F271" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G271" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H271" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="273" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I271" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9">
       <c r="A273" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="274" spans="1:8">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9">
       <c r="B274" t="s">
-        <v>363</v>
+        <v>380</v>
       </c>
       <c r="C274" t="n">
         <v>3.889</v>
       </c>
       <c r="D274" t="s">
-        <v>364</v>
+        <v>381</v>
       </c>
       <c r="E274" t="s">
-        <v>365</v>
+        <v>382</v>
       </c>
       <c r="F274" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G274" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H274" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="I274" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/GradeDistributionsDB/Summer2013/Output/Summer2013 BA.xlsx
+++ b/GradeDistributionsDB/Summer2013/Output/Summer2013 BA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="369">
   <si>
     <t>Course</t>
   </si>
@@ -707,6 +707,15 @@
   </si>
   <si>
     <t>57.14%</t>
+  </si>
+  <si>
+    <t>INFO-361</t>
+  </si>
+  <si>
+    <t>ARREOLA-RISA A</t>
+  </si>
+  <si>
+    <t>37.50%</t>
   </si>
   <si>
     <t>INFO-364</t>
@@ -1448,7 +1457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H274"/>
+  <dimension ref="A1:H277"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3063,67 +3072,67 @@
         <v>232</v>
       </c>
       <c r="C164" t="n">
+        <v>3.375</v>
+      </c>
+      <c r="D164" t="s">
+        <v>87</v>
+      </c>
+      <c r="E164" t="s">
+        <v>233</v>
+      </c>
+      <c r="F164" t="s">
+        <v>188</v>
+      </c>
+      <c r="G164" t="s">
+        <v>20</v>
+      </c>
+      <c r="H164" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8">
+      <c r="A166" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8">
+      <c r="B167" t="s">
+        <v>235</v>
+      </c>
+      <c r="C167" t="n">
         <v>3.315</v>
       </c>
-      <c r="D164" t="s">
-        <v>233</v>
-      </c>
-      <c r="E164" t="s">
+      <c r="D167" t="s">
+        <v>236</v>
+      </c>
+      <c r="E167" t="s">
         <v>87</v>
       </c>
-      <c r="F164" t="s">
-        <v>234</v>
-      </c>
-      <c r="G164" t="s">
-        <v>20</v>
-      </c>
-      <c r="H164" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8">
-      <c r="B165" t="s">
-        <v>235</v>
-      </c>
-      <c r="C165" t="n">
-        <v>3.258</v>
-      </c>
-      <c r="D165" t="s">
-        <v>236</v>
-      </c>
-      <c r="E165" t="s">
+      <c r="F167" t="s">
         <v>237</v>
       </c>
-      <c r="F165" t="s">
-        <v>238</v>
-      </c>
-      <c r="G165" t="s">
-        <v>20</v>
-      </c>
-      <c r="H165" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8">
-      <c r="A167" t="s">
-        <v>239</v>
+      <c r="G167" t="s">
+        <v>20</v>
+      </c>
+      <c r="H167" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="168" spans="1:8">
       <c r="B168" t="s">
-        <v>203</v>
+        <v>238</v>
       </c>
       <c r="C168" t="n">
-        <v>3.458</v>
+        <v>3.258</v>
       </c>
       <c r="D168" t="s">
+        <v>239</v>
+      </c>
+      <c r="E168" t="s">
         <v>240</v>
       </c>
-      <c r="E168" t="s">
-        <v>56</v>
-      </c>
       <c r="F168" t="s">
-        <v>188</v>
+        <v>241</v>
       </c>
       <c r="G168" t="s">
         <v>20</v>
@@ -3134,24 +3143,24 @@
     </row>
     <row r="170" spans="1:8">
       <c r="A170" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="171" spans="1:8">
       <c r="B171" t="s">
-        <v>228</v>
+        <v>203</v>
       </c>
       <c r="C171" t="n">
-        <v>3.792</v>
+        <v>3.458</v>
       </c>
       <c r="D171" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E171" t="s">
-        <v>243</v>
+        <v>56</v>
       </c>
       <c r="F171" t="s">
-        <v>20</v>
+        <v>188</v>
       </c>
       <c r="G171" t="s">
         <v>20</v>
@@ -3170,13 +3179,13 @@
         <v>228</v>
       </c>
       <c r="C174" t="n">
-        <v>3.429</v>
+        <v>3.792</v>
       </c>
       <c r="D174" t="s">
-        <v>204</v>
+        <v>245</v>
       </c>
       <c r="E174" t="s">
-        <v>230</v>
+        <v>246</v>
       </c>
       <c r="F174" t="s">
         <v>20</v>
@@ -3190,81 +3199,81 @@
     </row>
     <row r="176" spans="1:8">
       <c r="A176" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="177" spans="1:8">
       <c r="B177" t="s">
-        <v>246</v>
+        <v>228</v>
       </c>
       <c r="C177" t="n">
+        <v>3.429</v>
+      </c>
+      <c r="D177" t="s">
+        <v>204</v>
+      </c>
+      <c r="E177" t="s">
+        <v>230</v>
+      </c>
+      <c r="F177" t="s">
+        <v>20</v>
+      </c>
+      <c r="G177" t="s">
+        <v>20</v>
+      </c>
+      <c r="H177" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8">
+      <c r="A179" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8">
+      <c r="B180" t="s">
+        <v>249</v>
+      </c>
+      <c r="C180" t="n">
         <v>2.313</v>
       </c>
-      <c r="D177" t="s">
-        <v>247</v>
-      </c>
-      <c r="E177" t="s">
-        <v>248</v>
-      </c>
-      <c r="F177" t="s">
-        <v>249</v>
-      </c>
-      <c r="G177" t="s">
-        <v>249</v>
-      </c>
-      <c r="H177" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8">
-      <c r="B178" t="s">
+      <c r="D180" t="s">
         <v>250</v>
       </c>
-      <c r="C178" t="n">
-        <v>2.578</v>
-      </c>
-      <c r="D178" t="s">
+      <c r="E180" t="s">
         <v>251</v>
       </c>
-      <c r="E178" t="s">
+      <c r="F180" t="s">
         <v>252</v>
       </c>
-      <c r="F178" t="s">
-        <v>253</v>
-      </c>
-      <c r="G178" t="s">
-        <v>254</v>
-      </c>
-      <c r="H178" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8">
-      <c r="A180" t="s">
-        <v>256</v>
+      <c r="G180" t="s">
+        <v>252</v>
+      </c>
+      <c r="H180" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="181" spans="1:8">
       <c r="B181" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="C181" t="n">
-        <v>2.5415</v>
+        <v>2.578</v>
       </c>
       <c r="D181" t="s">
-        <v>20</v>
+        <v>254</v>
       </c>
       <c r="E181" t="s">
+        <v>255</v>
+      </c>
+      <c r="F181" t="s">
+        <v>256</v>
+      </c>
+      <c r="G181" t="s">
         <v>257</v>
       </c>
-      <c r="F181" t="s">
+      <c r="H181" t="s">
         <v>258</v>
-      </c>
-      <c r="G181" t="s">
-        <v>20</v>
-      </c>
-      <c r="H181" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -3274,131 +3283,131 @@
     </row>
     <row r="184" spans="1:8">
       <c r="B184" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C184" t="n">
-        <v>3.261</v>
+        <v>2.5415</v>
       </c>
       <c r="D184" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E184" t="s">
         <v>260</v>
       </c>
       <c r="F184" t="s">
-        <v>31</v>
+        <v>261</v>
       </c>
       <c r="G184" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="H184" t="s">
-        <v>20</v>
+        <v>143</v>
       </c>
     </row>
     <row r="186" spans="1:8">
       <c r="A186" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="187" spans="1:8">
       <c r="B187" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="C187" t="n">
-        <v>2.612</v>
+        <v>3.261</v>
       </c>
       <c r="D187" t="s">
+        <v>29</v>
+      </c>
+      <c r="E187" t="s">
         <v>263</v>
       </c>
-      <c r="E187" t="s">
-        <v>264</v>
-      </c>
       <c r="F187" t="s">
-        <v>265</v>
+        <v>31</v>
       </c>
       <c r="G187" t="s">
-        <v>266</v>
+        <v>31</v>
       </c>
       <c r="H187" t="s">
-        <v>267</v>
+        <v>20</v>
       </c>
     </row>
     <row r="189" spans="1:8">
       <c r="A189" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="190" spans="1:8">
       <c r="B190" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C190" t="n">
-        <v>2.885</v>
+        <v>2.612</v>
       </c>
       <c r="D190" t="s">
+        <v>266</v>
+      </c>
+      <c r="E190" t="s">
+        <v>267</v>
+      </c>
+      <c r="F190" t="s">
+        <v>268</v>
+      </c>
+      <c r="G190" t="s">
         <v>269</v>
       </c>
-      <c r="E190" t="s">
+      <c r="H190" t="s">
         <v>270</v>
-      </c>
-      <c r="F190" t="s">
-        <v>271</v>
-      </c>
-      <c r="G190" t="s">
-        <v>272</v>
-      </c>
-      <c r="H190" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="192" spans="1:8">
       <c r="A192" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="193" spans="1:8">
       <c r="B193" t="s">
+        <v>265</v>
+      </c>
+      <c r="C193" t="n">
+        <v>2.885</v>
+      </c>
+      <c r="D193" t="s">
+        <v>272</v>
+      </c>
+      <c r="E193" t="s">
+        <v>273</v>
+      </c>
+      <c r="F193" t="s">
+        <v>274</v>
+      </c>
+      <c r="G193" t="s">
         <v>275</v>
       </c>
-      <c r="C193" t="n">
-        <v>3.636</v>
-      </c>
-      <c r="D193" t="s">
+      <c r="H193" t="s">
         <v>276</v>
-      </c>
-      <c r="E193" t="s">
-        <v>277</v>
-      </c>
-      <c r="F193" t="s">
-        <v>20</v>
-      </c>
-      <c r="G193" t="s">
-        <v>20</v>
-      </c>
-      <c r="H193" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="195" spans="1:8">
       <c r="A195" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="196" spans="1:8">
       <c r="B196" t="s">
+        <v>278</v>
+      </c>
+      <c r="C196" t="n">
+        <v>3.636</v>
+      </c>
+      <c r="D196" t="s">
         <v>279</v>
       </c>
-      <c r="C196" t="n">
-        <v>3.773</v>
-      </c>
-      <c r="D196" t="s">
+      <c r="E196" t="s">
         <v>280</v>
       </c>
-      <c r="E196" t="s">
-        <v>281</v>
-      </c>
       <c r="F196" t="s">
-        <v>282</v>
+        <v>20</v>
       </c>
       <c r="G196" t="s">
         <v>20</v>
@@ -3409,72 +3418,72 @@
     </row>
     <row r="198" spans="1:8">
       <c r="A198" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="199" spans="1:8">
       <c r="B199" t="s">
+        <v>282</v>
+      </c>
+      <c r="C199" t="n">
+        <v>3.773</v>
+      </c>
+      <c r="D199" t="s">
+        <v>283</v>
+      </c>
+      <c r="E199" t="s">
         <v>284</v>
       </c>
-      <c r="C199" t="n">
+      <c r="F199" t="s">
+        <v>285</v>
+      </c>
+      <c r="G199" t="s">
+        <v>20</v>
+      </c>
+      <c r="H199" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8">
+      <c r="A201" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8">
+      <c r="B202" t="s">
+        <v>287</v>
+      </c>
+      <c r="C202" t="n">
         <v>3.55</v>
       </c>
-      <c r="D199" t="s">
-        <v>285</v>
-      </c>
-      <c r="E199" t="s">
-        <v>286</v>
-      </c>
-      <c r="F199" t="s">
-        <v>20</v>
-      </c>
-      <c r="G199" t="s">
-        <v>20</v>
-      </c>
-      <c r="H199" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8">
-      <c r="B200" t="s">
-        <v>185</v>
-      </c>
-      <c r="C200" t="n">
-        <v>3.857</v>
-      </c>
-      <c r="D200" t="s">
-        <v>287</v>
-      </c>
-      <c r="E200" t="s">
+      <c r="D202" t="s">
         <v>288</v>
       </c>
-      <c r="F200" t="s">
-        <v>20</v>
-      </c>
-      <c r="G200" t="s">
-        <v>20</v>
-      </c>
-      <c r="H200" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8">
-      <c r="A202" t="s">
+      <c r="E202" t="s">
         <v>289</v>
+      </c>
+      <c r="F202" t="s">
+        <v>20</v>
+      </c>
+      <c r="G202" t="s">
+        <v>20</v>
+      </c>
+      <c r="H202" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="203" spans="1:8">
       <c r="B203" t="s">
+        <v>185</v>
+      </c>
+      <c r="C203" t="n">
+        <v>3.857</v>
+      </c>
+      <c r="D203" t="s">
         <v>290</v>
       </c>
-      <c r="C203" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="D203" t="s">
-        <v>106</v>
-      </c>
       <c r="E203" t="s">
-        <v>17</v>
+        <v>291</v>
       </c>
       <c r="F203" t="s">
         <v>20</v>
@@ -3488,81 +3497,81 @@
     </row>
     <row r="205" spans="1:8">
       <c r="A205" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="206" spans="1:8">
       <c r="B206" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C206" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="D206" t="s">
+        <v>106</v>
+      </c>
+      <c r="E206" t="s">
+        <v>17</v>
+      </c>
+      <c r="F206" t="s">
+        <v>20</v>
+      </c>
+      <c r="G206" t="s">
+        <v>20</v>
+      </c>
+      <c r="H206" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8">
+      <c r="A208" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8">
+      <c r="B209" t="s">
+        <v>295</v>
+      </c>
+      <c r="C209" t="n">
         <v>3.348</v>
       </c>
-      <c r="D206" t="s">
-        <v>293</v>
-      </c>
-      <c r="E206" t="s">
-        <v>294</v>
-      </c>
-      <c r="F206" t="s">
-        <v>20</v>
-      </c>
-      <c r="G206" t="s">
-        <v>20</v>
-      </c>
-      <c r="H206" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8">
-      <c r="B207" t="s">
-        <v>295</v>
-      </c>
-      <c r="C207" t="n">
+      <c r="D209" t="s">
+        <v>296</v>
+      </c>
+      <c r="E209" t="s">
+        <v>297</v>
+      </c>
+      <c r="F209" t="s">
+        <v>20</v>
+      </c>
+      <c r="G209" t="s">
+        <v>20</v>
+      </c>
+      <c r="H209" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8">
+      <c r="B210" t="s">
+        <v>298</v>
+      </c>
+      <c r="C210" t="n">
         <v>3.662</v>
       </c>
-      <c r="D207" t="s">
-        <v>296</v>
-      </c>
-      <c r="E207" t="s">
+      <c r="D210" t="s">
+        <v>299</v>
+      </c>
+      <c r="E210" t="s">
         <v>104</v>
       </c>
-      <c r="F207" t="s">
-        <v>297</v>
-      </c>
-      <c r="G207" t="s">
-        <v>20</v>
-      </c>
-      <c r="H207" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8">
-      <c r="B208" t="s">
-        <v>298</v>
-      </c>
-      <c r="C208" t="n">
-        <v>3.333</v>
-      </c>
-      <c r="D208" t="s">
-        <v>82</v>
-      </c>
-      <c r="E208" t="s">
-        <v>299</v>
-      </c>
-      <c r="F208" t="s">
-        <v>19</v>
-      </c>
-      <c r="G208" t="s">
-        <v>20</v>
-      </c>
-      <c r="H208" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8">
-      <c r="A210" t="s">
+      <c r="F210" t="s">
         <v>300</v>
+      </c>
+      <c r="G210" t="s">
+        <v>20</v>
+      </c>
+      <c r="H210" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -3570,64 +3579,64 @@
         <v>301</v>
       </c>
       <c r="C211" t="n">
+        <v>3.333</v>
+      </c>
+      <c r="D211" t="s">
+        <v>82</v>
+      </c>
+      <c r="E211" t="s">
+        <v>302</v>
+      </c>
+      <c r="F211" t="s">
+        <v>19</v>
+      </c>
+      <c r="G211" t="s">
+        <v>20</v>
+      </c>
+      <c r="H211" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8">
+      <c r="A213" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8">
+      <c r="B214" t="s">
+        <v>304</v>
+      </c>
+      <c r="C214" t="n">
         <v>4</v>
       </c>
-      <c r="D211" t="s">
+      <c r="D214" t="s">
         <v>48</v>
       </c>
-      <c r="E211" t="s">
-        <v>20</v>
-      </c>
-      <c r="F211" t="s">
-        <v>20</v>
-      </c>
-      <c r="G211" t="s">
-        <v>20</v>
-      </c>
-      <c r="H211" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8">
-      <c r="B212" t="s">
-        <v>302</v>
-      </c>
-      <c r="C212" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="D212" t="s">
-        <v>106</v>
-      </c>
-      <c r="E212" t="s">
-        <v>17</v>
-      </c>
-      <c r="F212" t="s">
-        <v>20</v>
-      </c>
-      <c r="G212" t="s">
-        <v>20</v>
-      </c>
-      <c r="H212" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8">
-      <c r="A214" t="s">
-        <v>303</v>
+      <c r="E214" t="s">
+        <v>20</v>
+      </c>
+      <c r="F214" t="s">
+        <v>20</v>
+      </c>
+      <c r="G214" t="s">
+        <v>20</v>
+      </c>
+      <c r="H214" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="215" spans="1:8">
       <c r="B215" t="s">
-        <v>185</v>
+        <v>305</v>
       </c>
       <c r="C215" t="n">
-        <v>3.818</v>
+        <v>3.8</v>
       </c>
       <c r="D215" t="s">
-        <v>304</v>
+        <v>106</v>
       </c>
       <c r="E215" t="s">
-        <v>305</v>
+        <v>17</v>
       </c>
       <c r="F215" t="s">
         <v>20</v>
@@ -3646,13 +3655,13 @@
     </row>
     <row r="218" spans="1:8">
       <c r="B218" t="s">
+        <v>185</v>
+      </c>
+      <c r="C218" t="n">
+        <v>3.818</v>
+      </c>
+      <c r="D218" t="s">
         <v>307</v>
-      </c>
-      <c r="C218" t="n">
-        <v>3.529</v>
-      </c>
-      <c r="D218" t="s">
-        <v>209</v>
       </c>
       <c r="E218" t="s">
         <v>308</v>
@@ -3674,16 +3683,16 @@
     </row>
     <row r="221" spans="1:8">
       <c r="B221" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="C221" t="n">
-        <v>4</v>
+        <v>3.529</v>
       </c>
       <c r="D221" t="s">
-        <v>48</v>
+        <v>209</v>
       </c>
       <c r="E221" t="s">
-        <v>20</v>
+        <v>311</v>
       </c>
       <c r="F221" t="s">
         <v>20</v>
@@ -3697,66 +3706,66 @@
     </row>
     <row r="223" spans="1:8">
       <c r="A223" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="224" spans="1:8">
       <c r="B224" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="C224" t="n">
+        <v>4</v>
+      </c>
+      <c r="D224" t="s">
+        <v>48</v>
+      </c>
+      <c r="E224" t="s">
+        <v>20</v>
+      </c>
+      <c r="F224" t="s">
+        <v>20</v>
+      </c>
+      <c r="G224" t="s">
+        <v>20</v>
+      </c>
+      <c r="H224" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8">
+      <c r="A226" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8">
+      <c r="B227" t="s">
+        <v>304</v>
+      </c>
+      <c r="C227" t="n">
         <v>3.667</v>
       </c>
-      <c r="D224" t="s">
-        <v>311</v>
-      </c>
-      <c r="E224" t="s">
-        <v>312</v>
-      </c>
-      <c r="F224" t="s">
-        <v>20</v>
-      </c>
-      <c r="G224" t="s">
-        <v>20</v>
-      </c>
-      <c r="H224" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="225" spans="1:8">
-      <c r="B225" t="s">
-        <v>313</v>
-      </c>
-      <c r="C225" t="n">
-        <v>3.825</v>
-      </c>
-      <c r="D225" t="s">
+      <c r="D227" t="s">
         <v>314</v>
       </c>
-      <c r="E225" t="s">
+      <c r="E227" t="s">
         <v>315</v>
       </c>
-      <c r="F225" t="s">
-        <v>20</v>
-      </c>
-      <c r="G225" t="s">
-        <v>20</v>
-      </c>
-      <c r="H225" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="227" spans="1:8">
-      <c r="A227" t="s">
-        <v>316</v>
+      <c r="F227" t="s">
+        <v>20</v>
+      </c>
+      <c r="G227" t="s">
+        <v>20</v>
+      </c>
+      <c r="H227" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="228" spans="1:8">
       <c r="B228" t="s">
-        <v>129</v>
+        <v>316</v>
       </c>
       <c r="C228" t="n">
-        <v>3.655</v>
+        <v>3.825</v>
       </c>
       <c r="D228" t="s">
         <v>317</v>
@@ -3781,70 +3790,70 @@
     </row>
     <row r="231" spans="1:8">
       <c r="B231" t="s">
+        <v>129</v>
+      </c>
+      <c r="C231" t="n">
+        <v>3.655</v>
+      </c>
+      <c r="D231" t="s">
         <v>320</v>
       </c>
-      <c r="C231" t="n">
+      <c r="E231" t="s">
+        <v>321</v>
+      </c>
+      <c r="F231" t="s">
+        <v>20</v>
+      </c>
+      <c r="G231" t="s">
+        <v>20</v>
+      </c>
+      <c r="H231" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8">
+      <c r="A233" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8">
+      <c r="B234" t="s">
+        <v>323</v>
+      </c>
+      <c r="C234" t="n">
         <v>3.133</v>
       </c>
-      <c r="D231" t="s">
-        <v>312</v>
-      </c>
-      <c r="E231" t="s">
+      <c r="D234" t="s">
+        <v>315</v>
+      </c>
+      <c r="E234" t="s">
         <v>183</v>
       </c>
-      <c r="F231" t="s">
-        <v>20</v>
-      </c>
-      <c r="G231" t="s">
-        <v>20</v>
-      </c>
-      <c r="H231" t="s">
+      <c r="F234" t="s">
+        <v>20</v>
+      </c>
+      <c r="G234" t="s">
+        <v>20</v>
+      </c>
+      <c r="H234" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="232" spans="1:8">
-      <c r="B232" t="s">
-        <v>321</v>
-      </c>
-      <c r="C232" t="n">
-        <v>3.676</v>
-      </c>
-      <c r="D232" t="s">
-        <v>322</v>
-      </c>
-      <c r="E232" t="s">
-        <v>323</v>
-      </c>
-      <c r="F232" t="s">
-        <v>110</v>
-      </c>
-      <c r="G232" t="s">
-        <v>20</v>
-      </c>
-      <c r="H232" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="234" spans="1:8">
-      <c r="A234" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="235" spans="1:8">
       <c r="B235" t="s">
+        <v>324</v>
+      </c>
+      <c r="C235" t="n">
+        <v>3.676</v>
+      </c>
+      <c r="D235" t="s">
         <v>325</v>
-      </c>
-      <c r="C235" t="n">
-        <v>3.389</v>
-      </c>
-      <c r="D235" t="s">
-        <v>142</v>
       </c>
       <c r="E235" t="s">
         <v>326</v>
       </c>
       <c r="F235" t="s">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="G235" t="s">
         <v>20</v>
@@ -3860,16 +3869,16 @@
     </row>
     <row r="238" spans="1:8">
       <c r="B238" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
       <c r="C238" t="n">
-        <v>3.636</v>
+        <v>3.389</v>
       </c>
       <c r="D238" t="s">
-        <v>276</v>
+        <v>142</v>
       </c>
       <c r="E238" t="s">
-        <v>277</v>
+        <v>329</v>
       </c>
       <c r="F238" t="s">
         <v>20</v>
@@ -3883,24 +3892,24 @@
     </row>
     <row r="240" spans="1:8">
       <c r="A240" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="241" spans="1:8">
       <c r="B241" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="C241" t="n">
-        <v>3.326</v>
+        <v>3.636</v>
       </c>
       <c r="D241" t="s">
-        <v>204</v>
+        <v>279</v>
       </c>
       <c r="E241" t="s">
-        <v>330</v>
+        <v>280</v>
       </c>
       <c r="F241" t="s">
-        <v>331</v>
+        <v>20</v>
       </c>
       <c r="G241" t="s">
         <v>20</v>
@@ -3911,24 +3920,24 @@
     </row>
     <row r="243" spans="1:8">
       <c r="A243" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="244" spans="1:8">
       <c r="B244" t="s">
+        <v>332</v>
+      </c>
+      <c r="C244" t="n">
+        <v>3.326</v>
+      </c>
+      <c r="D244" t="s">
+        <v>204</v>
+      </c>
+      <c r="E244" t="s">
         <v>333</v>
       </c>
-      <c r="C244" t="n">
-        <v>3.818</v>
-      </c>
-      <c r="D244" t="s">
-        <v>304</v>
-      </c>
-      <c r="E244" t="s">
-        <v>305</v>
-      </c>
       <c r="F244" t="s">
-        <v>20</v>
+        <v>334</v>
       </c>
       <c r="G244" t="s">
         <v>20</v>
@@ -3939,72 +3948,72 @@
     </row>
     <row r="246" spans="1:8">
       <c r="A246" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="247" spans="1:8">
       <c r="B247" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C247" t="n">
+        <v>3.818</v>
+      </c>
+      <c r="D247" t="s">
+        <v>307</v>
+      </c>
+      <c r="E247" t="s">
+        <v>308</v>
+      </c>
+      <c r="F247" t="s">
+        <v>20</v>
+      </c>
+      <c r="G247" t="s">
+        <v>20</v>
+      </c>
+      <c r="H247" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8">
+      <c r="A249" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8">
+      <c r="B250" t="s">
+        <v>338</v>
+      </c>
+      <c r="C250" t="n">
         <v>3.727</v>
       </c>
-      <c r="D247" t="s">
-        <v>336</v>
-      </c>
-      <c r="E247" t="s">
+      <c r="D250" t="s">
+        <v>339</v>
+      </c>
+      <c r="E250" t="s">
         <v>66</v>
       </c>
-      <c r="F247" t="s">
-        <v>20</v>
-      </c>
-      <c r="G247" t="s">
-        <v>20</v>
-      </c>
-      <c r="H247" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="248" spans="1:8">
-      <c r="B248" t="s">
-        <v>337</v>
-      </c>
-      <c r="C248" t="n">
-        <v>3.611</v>
-      </c>
-      <c r="D248" t="s">
-        <v>326</v>
-      </c>
-      <c r="E248" t="s">
-        <v>142</v>
-      </c>
-      <c r="F248" t="s">
-        <v>20</v>
-      </c>
-      <c r="G248" t="s">
-        <v>20</v>
-      </c>
-      <c r="H248" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="250" spans="1:8">
-      <c r="A250" t="s">
-        <v>338</v>
+      <c r="F250" t="s">
+        <v>20</v>
+      </c>
+      <c r="G250" t="s">
+        <v>20</v>
+      </c>
+      <c r="H250" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="251" spans="1:8">
       <c r="B251" t="s">
-        <v>175</v>
+        <v>340</v>
       </c>
       <c r="C251" t="n">
-        <v>3.957</v>
+        <v>3.611</v>
       </c>
       <c r="D251" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="E251" t="s">
-        <v>340</v>
+        <v>142</v>
       </c>
       <c r="F251" t="s">
         <v>20</v>
@@ -4023,16 +4032,16 @@
     </row>
     <row r="254" spans="1:8">
       <c r="B254" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C254" t="n">
-        <v>3.714</v>
+        <v>3.957</v>
       </c>
       <c r="D254" t="s">
-        <v>90</v>
+        <v>342</v>
       </c>
       <c r="E254" t="s">
-        <v>91</v>
+        <v>343</v>
       </c>
       <c r="F254" t="s">
         <v>20</v>
@@ -4046,106 +4055,106 @@
     </row>
     <row r="256" spans="1:8">
       <c r="A256" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="257" spans="1:8">
       <c r="B257" t="s">
-        <v>343</v>
+        <v>179</v>
       </c>
       <c r="C257" t="n">
+        <v>3.714</v>
+      </c>
+      <c r="D257" t="s">
+        <v>90</v>
+      </c>
+      <c r="E257" t="s">
+        <v>91</v>
+      </c>
+      <c r="F257" t="s">
+        <v>20</v>
+      </c>
+      <c r="G257" t="s">
+        <v>20</v>
+      </c>
+      <c r="H257" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8">
+      <c r="A259" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8">
+      <c r="B260" t="s">
+        <v>346</v>
+      </c>
+      <c r="C260" t="n">
         <v>2.596</v>
       </c>
-      <c r="D257" t="s">
-        <v>344</v>
-      </c>
-      <c r="E257" t="s">
-        <v>345</v>
-      </c>
-      <c r="F257" t="s">
-        <v>346</v>
-      </c>
-      <c r="G257" t="s">
+      <c r="D260" t="s">
         <v>347</v>
       </c>
-      <c r="H257" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="258" spans="1:8">
-      <c r="B258" t="s">
-        <v>335</v>
-      </c>
-      <c r="C258" t="n">
-        <v>2.957</v>
-      </c>
-      <c r="D258" t="s">
-        <v>210</v>
-      </c>
-      <c r="E258" t="s">
+      <c r="E260" t="s">
         <v>348</v>
       </c>
-      <c r="F258" t="s">
+      <c r="F260" t="s">
         <v>349</v>
       </c>
-      <c r="G258" t="s">
+      <c r="G260" t="s">
         <v>350</v>
       </c>
-      <c r="H258" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="260" spans="1:8">
-      <c r="A260" t="s">
-        <v>352</v>
+      <c r="H260" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="261" spans="1:8">
       <c r="B261" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="C261" t="n">
-        <v>3.538</v>
+        <v>2.957</v>
       </c>
       <c r="D261" t="s">
-        <v>148</v>
+        <v>210</v>
       </c>
       <c r="E261" t="s">
+        <v>351</v>
+      </c>
+      <c r="F261" t="s">
+        <v>352</v>
+      </c>
+      <c r="G261" t="s">
         <v>353</v>
       </c>
-      <c r="F261" t="s">
-        <v>20</v>
-      </c>
-      <c r="G261" t="s">
-        <v>20</v>
-      </c>
       <c r="H261" t="s">
-        <v>20</v>
+        <v>354</v>
       </c>
     </row>
     <row r="263" spans="1:8">
       <c r="A263" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="264" spans="1:8">
       <c r="B264" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="C264" t="n">
-        <v>3.769</v>
+        <v>3.538</v>
       </c>
       <c r="D264" t="s">
-        <v>355</v>
+        <v>148</v>
       </c>
       <c r="E264" t="s">
-        <v>20</v>
+        <v>356</v>
       </c>
       <c r="F264" t="s">
         <v>20</v>
       </c>
       <c r="G264" t="s">
-        <v>151</v>
+        <v>20</v>
       </c>
       <c r="H264" t="s">
         <v>20</v>
@@ -4153,27 +4162,27 @@
     </row>
     <row r="266" spans="1:8">
       <c r="A266" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="267" spans="1:8">
       <c r="B267" t="s">
-        <v>357</v>
+        <v>340</v>
       </c>
       <c r="C267" t="n">
-        <v>3.9335</v>
+        <v>3.769</v>
       </c>
       <c r="D267" t="s">
         <v>358</v>
       </c>
       <c r="E267" t="s">
-        <v>226</v>
+        <v>20</v>
       </c>
       <c r="F267" t="s">
         <v>20</v>
       </c>
       <c r="G267" t="s">
-        <v>20</v>
+        <v>151</v>
       </c>
       <c r="H267" t="s">
         <v>20</v>
@@ -4186,75 +4195,103 @@
     </row>
     <row r="270" spans="1:8">
       <c r="B270" t="s">
-        <v>343</v>
+        <v>360</v>
       </c>
       <c r="C270" t="n">
+        <v>3.9335</v>
+      </c>
+      <c r="D270" t="s">
+        <v>361</v>
+      </c>
+      <c r="E270" t="s">
+        <v>226</v>
+      </c>
+      <c r="F270" t="s">
+        <v>20</v>
+      </c>
+      <c r="G270" t="s">
+        <v>20</v>
+      </c>
+      <c r="H270" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8">
+      <c r="A272" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8">
+      <c r="B273" t="s">
+        <v>346</v>
+      </c>
+      <c r="C273" t="n">
         <v>3.533</v>
       </c>
-      <c r="D270" t="s">
-        <v>311</v>
-      </c>
-      <c r="E270" t="s">
+      <c r="D273" t="s">
+        <v>314</v>
+      </c>
+      <c r="E273" t="s">
         <v>17</v>
       </c>
-      <c r="F270" t="s">
-        <v>360</v>
-      </c>
-      <c r="G270" t="s">
-        <v>20</v>
-      </c>
-      <c r="H270" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="271" spans="1:8">
-      <c r="B271" t="s">
-        <v>335</v>
-      </c>
-      <c r="C271" t="n">
-        <v>3.933</v>
-      </c>
-      <c r="D271" t="s">
-        <v>361</v>
-      </c>
-      <c r="E271" t="s">
-        <v>19</v>
-      </c>
-      <c r="F271" t="s">
-        <v>20</v>
-      </c>
-      <c r="G271" t="s">
-        <v>20</v>
-      </c>
-      <c r="H271" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="273" spans="1:8">
-      <c r="A273" t="s">
-        <v>362</v>
+      <c r="F273" t="s">
+        <v>363</v>
+      </c>
+      <c r="G273" t="s">
+        <v>20</v>
+      </c>
+      <c r="H273" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="274" spans="1:8">
       <c r="B274" t="s">
-        <v>363</v>
+        <v>338</v>
       </c>
       <c r="C274" t="n">
-        <v>3.889</v>
+        <v>3.933</v>
       </c>
       <c r="D274" t="s">
         <v>364</v>
       </c>
       <c r="E274" t="s">
+        <v>19</v>
+      </c>
+      <c r="F274" t="s">
+        <v>20</v>
+      </c>
+      <c r="G274" t="s">
+        <v>20</v>
+      </c>
+      <c r="H274" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8">
+      <c r="A276" t="s">
         <v>365</v>
       </c>
-      <c r="F274" t="s">
-        <v>20</v>
-      </c>
-      <c r="G274" t="s">
-        <v>20</v>
-      </c>
-      <c r="H274" t="s">
+    </row>
+    <row r="277" spans="1:8">
+      <c r="B277" t="s">
+        <v>366</v>
+      </c>
+      <c r="C277" t="n">
+        <v>3.889</v>
+      </c>
+      <c r="D277" t="s">
+        <v>367</v>
+      </c>
+      <c r="E277" t="s">
+        <v>368</v>
+      </c>
+      <c r="F277" t="s">
+        <v>20</v>
+      </c>
+      <c r="G277" t="s">
+        <v>20</v>
+      </c>
+      <c r="H277" t="s">
         <v>20</v>
       </c>
     </row>
